--- a/appendix/metrics_all_manifesto-8.xlsx
+++ b/appendix/metrics_all_manifesto-8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,7 +893,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>accuracy_balanced_mean</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -917,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>accuracy_balanced_mean</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -932,28 +932,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.005</v>
+        <v>0.174</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002</v>
+        <v>0.142</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004</v>
+        <v>0.277</v>
       </c>
       <c r="F17" t="n">
-        <v>0.011</v>
+        <v>0.291</v>
       </c>
       <c r="G17" t="n">
-        <v>0.016</v>
+        <v>0.236</v>
       </c>
       <c r="H17" t="n">
-        <v>0.013</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>accuracy_balanced_mean</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -962,28 +962,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.012</v>
+        <v>0.28</v>
       </c>
       <c r="D18" t="n">
-        <v>0.012</v>
+        <v>0.301</v>
       </c>
       <c r="E18" t="n">
-        <v>0.012</v>
+        <v>0.367</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01</v>
+        <v>0.381</v>
       </c>
       <c r="G18" t="n">
-        <v>0.15</v>
+        <v>0.281</v>
       </c>
       <c r="H18" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>accuracy_balanced_mean</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.011</v>
+        <v>0.31</v>
       </c>
       <c r="D19" t="n">
-        <v>0.012</v>
+        <v>0.323</v>
       </c>
       <c r="E19" t="n">
-        <v>0.008</v>
+        <v>0.404</v>
       </c>
       <c r="F19" t="n">
-        <v>0.012</v>
+        <v>0.409</v>
       </c>
       <c r="G19" t="n">
-        <v>0.012</v>
+        <v>0.421</v>
       </c>
       <c r="H19" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>accuracy_balanced_mean</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1022,28 +1022,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.004</v>
+        <v>0.347</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002</v>
+        <v>0.359</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002</v>
+        <v>0.429</v>
       </c>
       <c r="F20" t="n">
-        <v>0.006</v>
+        <v>0.435</v>
       </c>
       <c r="G20" t="n">
-        <v>0.006</v>
+        <v>0.473</v>
       </c>
       <c r="H20" t="n">
-        <v>0.004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>accuracy_balanced_mean</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1052,28 +1052,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.003</v>
+        <v>0.376</v>
       </c>
       <c r="D21" t="n">
-        <v>0.005</v>
+        <v>0.371</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002</v>
+        <v>0.445</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005</v>
+        <v>0.451</v>
       </c>
       <c r="G21" t="n">
-        <v>0.002</v>
+        <v>0.503</v>
       </c>
       <c r="H21" t="n">
-        <v>0.006</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>accuracy_balanced_mean</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1082,28 +1082,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.001</v>
+        <v>0.397</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001</v>
+        <v>0.404</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001</v>
+        <v>0.46</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004</v>
+        <v>0.464</v>
       </c>
       <c r="G22" t="n">
-        <v>0.006</v>
+        <v>0.517</v>
       </c>
       <c r="H22" t="n">
-        <v>0.005</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1133,7 +1133,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1142,28 +1142,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.025</v>
+        <v>0.005</v>
       </c>
       <c r="D24" t="n">
-        <v>0.025</v>
+        <v>0.002</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02</v>
+        <v>0.004</v>
       </c>
       <c r="F24" t="n">
-        <v>0.019</v>
+        <v>0.011</v>
       </c>
       <c r="G24" t="n">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
       <c r="H24" t="n">
-        <v>0.034</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1172,28 +1172,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="D25" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="E25" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="F25" t="n">
         <v>0.01</v>
       </c>
       <c r="G25" t="n">
-        <v>0.094</v>
+        <v>0.15</v>
       </c>
       <c r="H25" t="n">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1202,28 +1202,28 @@
         </is>
       </c>
       <c r="C26" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.012</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.008999999999999999</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.015</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1235,7 +1235,7 @@
         <v>0.004</v>
       </c>
       <c r="D27" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E27" t="n">
         <v>0.002</v>
@@ -1244,16 +1244,16 @@
         <v>0.006</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="H27" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1262,28 +1262,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="D28" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F28" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="H28" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1295,19 +1295,439 @@
         <v>0.001</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E29" t="n">
         <v>0.001</v>
       </c>
       <c r="F29" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.001</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H34" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D35" t="n">
         <v>0.004</v>
       </c>
-      <c r="H29" t="n">
+      <c r="E35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.006</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.004</v>
       </c>
     </row>
   </sheetData>

--- a/appendix/metrics_all_manifesto-8.xlsx
+++ b/appendix/metrics_all_manifesto-8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,7 +683,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_mean</t>
+          <t>accuracy/f1_micro_mean</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_mean</t>
+          <t>accuracy/f1_micro_mean</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -743,7 +743,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_mean</t>
+          <t>accuracy/f1_micro_mean</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -773,7 +773,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_mean</t>
+          <t>accuracy/f1_micro_mean</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -803,7 +803,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_mean</t>
+          <t>accuracy/f1_micro_mean</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -833,7 +833,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_mean</t>
+          <t>accuracy/f1_micro_mean</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -863,7 +863,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_mean</t>
+          <t>accuracy/f1_micro_mean</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1103,7 +1103,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>recall_macro_mean</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1127,13 +1127,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>recall_macro_mean</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1142,28 +1142,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.005</v>
+        <v>0.174</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002</v>
+        <v>0.142</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004</v>
+        <v>0.277</v>
       </c>
       <c r="F24" t="n">
-        <v>0.011</v>
+        <v>0.291</v>
       </c>
       <c r="G24" t="n">
-        <v>0.016</v>
+        <v>0.236</v>
       </c>
       <c r="H24" t="n">
-        <v>0.013</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>recall_macro_mean</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1172,28 +1172,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.012</v>
+        <v>0.28</v>
       </c>
       <c r="D25" t="n">
-        <v>0.012</v>
+        <v>0.301</v>
       </c>
       <c r="E25" t="n">
-        <v>0.012</v>
+        <v>0.367</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01</v>
+        <v>0.381</v>
       </c>
       <c r="G25" t="n">
-        <v>0.15</v>
+        <v>0.281</v>
       </c>
       <c r="H25" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>recall_macro_mean</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1202,28 +1202,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.011</v>
+        <v>0.31</v>
       </c>
       <c r="D26" t="n">
-        <v>0.012</v>
+        <v>0.323</v>
       </c>
       <c r="E26" t="n">
-        <v>0.008</v>
+        <v>0.404</v>
       </c>
       <c r="F26" t="n">
-        <v>0.012</v>
+        <v>0.409</v>
       </c>
       <c r="G26" t="n">
-        <v>0.012</v>
+        <v>0.421</v>
       </c>
       <c r="H26" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>recall_macro_mean</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1232,28 +1232,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.004</v>
+        <v>0.347</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002</v>
+        <v>0.359</v>
       </c>
       <c r="E27" t="n">
-        <v>0.002</v>
+        <v>0.429</v>
       </c>
       <c r="F27" t="n">
-        <v>0.006</v>
+        <v>0.435</v>
       </c>
       <c r="G27" t="n">
-        <v>0.006</v>
+        <v>0.473</v>
       </c>
       <c r="H27" t="n">
-        <v>0.004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>recall_macro_mean</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1262,28 +1262,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.003</v>
+        <v>0.376</v>
       </c>
       <c r="D28" t="n">
-        <v>0.005</v>
+        <v>0.371</v>
       </c>
       <c r="E28" t="n">
-        <v>0.002</v>
+        <v>0.445</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005</v>
+        <v>0.451</v>
       </c>
       <c r="G28" t="n">
-        <v>0.002</v>
+        <v>0.503</v>
       </c>
       <c r="H28" t="n">
-        <v>0.006</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>recall_macro_mean</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.001</v>
+        <v>0.397</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001</v>
+        <v>0.404</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001</v>
+        <v>0.46</v>
       </c>
       <c r="F29" t="n">
-        <v>0.004</v>
+        <v>0.464</v>
       </c>
       <c r="G29" t="n">
-        <v>0.006</v>
+        <v>0.517</v>
       </c>
       <c r="H29" t="n">
-        <v>0.005</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_std</t>
+          <t>recall_micro_mean</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1337,13 +1337,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_std</t>
+          <t>recall_micro_mean</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.025</v>
+        <v>0.257</v>
       </c>
       <c r="D31" t="n">
-        <v>0.025</v>
+        <v>0.268</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="F31" t="n">
-        <v>0.019</v>
+        <v>0.402</v>
       </c>
       <c r="G31" t="n">
-        <v>0.007</v>
+        <v>0.353</v>
       </c>
       <c r="H31" t="n">
-        <v>0.034</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_std</t>
+          <t>recall_micro_mean</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1382,28 +1382,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.013</v>
+        <v>0.416</v>
       </c>
       <c r="D32" t="n">
-        <v>0.013</v>
+        <v>0.43</v>
       </c>
       <c r="E32" t="n">
-        <v>0.011</v>
+        <v>0.494</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01</v>
+        <v>0.524</v>
       </c>
       <c r="G32" t="n">
-        <v>0.094</v>
+        <v>0.445</v>
       </c>
       <c r="H32" t="n">
-        <v>0.011</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_std</t>
+          <t>recall_micro_mean</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1412,28 +1412,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.012</v>
+        <v>0.42</v>
       </c>
       <c r="D33" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.463</v>
       </c>
       <c r="E33" t="n">
-        <v>0.005</v>
+        <v>0.539</v>
       </c>
       <c r="F33" t="n">
-        <v>0.011</v>
+        <v>0.526</v>
       </c>
       <c r="G33" t="n">
-        <v>0.007</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0.015</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_std</t>
+          <t>recall_micro_mean</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1442,28 +1442,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.004</v>
+        <v>0.486</v>
       </c>
       <c r="D34" t="n">
-        <v>0.003</v>
+        <v>0.51</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002</v>
+        <v>0.58</v>
       </c>
       <c r="F34" t="n">
-        <v>0.006</v>
+        <v>0.55</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001</v>
+        <v>0.602</v>
       </c>
       <c r="H34" t="n">
-        <v>0.007</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_std</t>
+          <t>recall_micro_mean</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1472,28 +1472,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.001</v>
+        <v>0.52</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004</v>
+        <v>0.535</v>
       </c>
       <c r="E35" t="n">
-        <v>0.001</v>
+        <v>0.589</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001</v>
+        <v>0.569</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01</v>
+        <v>0.614</v>
       </c>
       <c r="H35" t="n">
-        <v>0.004</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>f1_micro_std</t>
+          <t>recall_micro_mean</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1502,28 +1502,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.001</v>
+        <v>0.541</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.555</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001</v>
+        <v>0.598</v>
       </c>
       <c r="F36" t="n">
-        <v>0.001</v>
+        <v>0.58</v>
       </c>
       <c r="G36" t="n">
-        <v>0.004</v>
+        <v>0.636</v>
       </c>
       <c r="H36" t="n">
-        <v>0.006</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>precision_macro_mean</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1547,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>precision_macro_mean</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1562,28 +1562,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.003</v>
+        <v>0.173</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004</v>
+        <v>0.138</v>
       </c>
       <c r="E38" t="n">
-        <v>0.002</v>
+        <v>0.307</v>
       </c>
       <c r="F38" t="n">
-        <v>0.007</v>
+        <v>0.309</v>
       </c>
       <c r="G38" t="n">
-        <v>0.021</v>
+        <v>0.287</v>
       </c>
       <c r="H38" t="n">
-        <v>0.012</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>precision_macro_mean</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1592,28 +1592,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01</v>
+        <v>0.309</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01</v>
+        <v>0.321</v>
       </c>
       <c r="E39" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="F39" t="n">
-        <v>0.006</v>
+        <v>0.413</v>
       </c>
       <c r="G39" t="n">
-        <v>0.111</v>
+        <v>0.338</v>
       </c>
       <c r="H39" t="n">
-        <v>0.013</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>precision_macro_mean</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1622,28 +1622,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.011</v>
+        <v>0.313</v>
       </c>
       <c r="D40" t="n">
-        <v>0.012</v>
+        <v>0.35</v>
       </c>
       <c r="E40" t="n">
-        <v>0.007</v>
+        <v>0.429</v>
       </c>
       <c r="F40" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.415</v>
       </c>
       <c r="G40" t="n">
-        <v>0.016</v>
+        <v>0.459</v>
       </c>
       <c r="H40" t="n">
-        <v>0.007</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>precision_macro_mean</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1652,28 +1652,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.004</v>
+        <v>0.372</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002</v>
+        <v>0.401</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001</v>
+        <v>0.478</v>
       </c>
       <c r="F41" t="n">
-        <v>0.006</v>
+        <v>0.444</v>
       </c>
       <c r="G41" t="n">
-        <v>0.006</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
-        <v>0.007</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>precision_macro_mean</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1682,52 +1682,2572 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.004</v>
+        <v>0.405</v>
       </c>
       <c r="D42" t="n">
-        <v>0.004</v>
+        <v>0.47</v>
       </c>
       <c r="E42" t="n">
-        <v>0.002</v>
+        <v>0.483</v>
       </c>
       <c r="F42" t="n">
-        <v>0.006</v>
+        <v>0.458</v>
       </c>
       <c r="G42" t="n">
-        <v>0.004</v>
+        <v>0.516</v>
       </c>
       <c r="H42" t="n">
-        <v>0.005</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
+          <t>precision_macro_mean</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_mean</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_mean</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.384</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_mean</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_mean</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_mean</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.589</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_mean</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.609</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_mean</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_mean</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_mean</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.274</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_mean</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.422</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_mean</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.469</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_mean</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_mean</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.521</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_mean</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.544</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_mean</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.047</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_mean</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.283</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_mean</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.426</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_mean</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.471</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_mean</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_mean</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.522</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_mean</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.545</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_std</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_std</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_std</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_std</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_std</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_std</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_std</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>accuracy/f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>accuracy/f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>accuracy/f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>accuracy/f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>accuracy/f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>accuracy/f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>accuracy/f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
           <t>accuracy_balanced_std</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C85" t="n">
         <v>0.001</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D85" t="n">
         <v>0.002</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E85" t="n">
         <v>0.002</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F85" t="n">
         <v>0.005</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G85" t="n">
         <v>0.013</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H85" t="n">
         <v>0.004</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_std</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_std</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_std</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_std</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_std</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_std</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_std</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>recall_micro_std</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>recall_micro_std</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>recall_micro_std</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>recall_micro_std</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>recall_micro_std</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>recall_micro_std</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>recall_micro_std</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_std</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_std</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_std</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_std</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_std</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_std</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_std</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_std</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_std</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_std</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_std</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_std</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_std</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_std</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.007</v>
       </c>
     </row>
   </sheetData>

--- a/appendix/metrics_all_manifesto-8.xlsx
+++ b/appendix/metrics_all_manifesto-8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,7 +683,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_mean</t>
+          <t>f1_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.016</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_mean</t>
+          <t>f1_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -722,28 +722,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.257</v>
+        <v>0.357</v>
       </c>
       <c r="D10" t="n">
-        <v>0.268</v>
+        <v>0.344</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4</v>
+        <v>0.497</v>
       </c>
       <c r="F10" t="n">
-        <v>0.402</v>
+        <v>0.508</v>
       </c>
       <c r="G10" t="n">
-        <v>0.353</v>
+        <v>0.436</v>
       </c>
       <c r="H10" t="n">
-        <v>0.384</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_mean</t>
+          <t>f1_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -752,28 +752,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.416</v>
+        <v>0.514</v>
       </c>
       <c r="D11" t="n">
-        <v>0.43</v>
+        <v>0.532</v>
       </c>
       <c r="E11" t="n">
-        <v>0.494</v>
+        <v>0.583</v>
       </c>
       <c r="F11" t="n">
-        <v>0.524</v>
+        <v>0.615</v>
       </c>
       <c r="G11" t="n">
-        <v>0.445</v>
+        <v>0.478</v>
       </c>
       <c r="H11" t="n">
-        <v>0.52</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_mean</t>
+          <t>f1_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -782,28 +782,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.42</v>
+        <v>0.514</v>
       </c>
       <c r="D12" t="n">
-        <v>0.463</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.539</v>
+        <v>0.624</v>
       </c>
       <c r="F12" t="n">
-        <v>0.526</v>
+        <v>0.61</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.645</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_mean</t>
+          <t>f1_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -812,28 +812,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.486</v>
+        <v>0.578</v>
       </c>
       <c r="D13" t="n">
-        <v>0.51</v>
+        <v>0.598</v>
       </c>
       <c r="E13" t="n">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="F13" t="n">
-        <v>0.55</v>
+        <v>0.629</v>
       </c>
       <c r="G13" t="n">
-        <v>0.602</v>
+        <v>0.676</v>
       </c>
       <c r="H13" t="n">
-        <v>0.589</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_mean</t>
+          <t>f1_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -842,28 +842,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.52</v>
+        <v>0.612</v>
       </c>
       <c r="D14" t="n">
-        <v>0.535</v>
+        <v>0.618</v>
       </c>
       <c r="E14" t="n">
-        <v>0.589</v>
+        <v>0.668</v>
       </c>
       <c r="F14" t="n">
-        <v>0.569</v>
+        <v>0.646</v>
       </c>
       <c r="G14" t="n">
-        <v>0.614</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.609</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_mean</t>
+          <t>f1_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -872,28 +872,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.541</v>
+        <v>0.629</v>
       </c>
       <c r="D15" t="n">
-        <v>0.555</v>
+        <v>0.639</v>
       </c>
       <c r="E15" t="n">
-        <v>0.598</v>
+        <v>0.675</v>
       </c>
       <c r="F15" t="n">
-        <v>0.58</v>
+        <v>0.654</v>
       </c>
       <c r="G15" t="n">
-        <v>0.636</v>
+        <v>0.706</v>
       </c>
       <c r="H15" t="n">
-        <v>0.629</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_mean</t>
+          <t>f1_macro_rest_mean</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -917,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.132</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_mean</t>
+          <t>f1_macro_rest_mean</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -932,28 +932,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.174</v>
+        <v>0.108</v>
       </c>
       <c r="D17" t="n">
-        <v>0.142</v>
+        <v>0.04</v>
       </c>
       <c r="E17" t="n">
-        <v>0.277</v>
+        <v>0.203</v>
       </c>
       <c r="F17" t="n">
-        <v>0.291</v>
+        <v>0.212</v>
       </c>
       <c r="G17" t="n">
-        <v>0.236</v>
+        <v>0.159</v>
       </c>
       <c r="H17" t="n">
-        <v>0.338</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_mean</t>
+          <t>f1_macro_rest_mean</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -962,28 +962,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="D18" t="n">
-        <v>0.301</v>
+        <v>0.229</v>
       </c>
       <c r="E18" t="n">
-        <v>0.367</v>
+        <v>0.304</v>
       </c>
       <c r="F18" t="n">
-        <v>0.381</v>
+        <v>0.312</v>
       </c>
       <c r="G18" t="n">
-        <v>0.281</v>
+        <v>0.202</v>
       </c>
       <c r="H18" t="n">
-        <v>0.467</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_mean</t>
+          <t>f1_macro_rest_mean</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.31</v>
+        <v>0.242</v>
       </c>
       <c r="D19" t="n">
-        <v>0.323</v>
+        <v>0.253</v>
       </c>
       <c r="E19" t="n">
-        <v>0.404</v>
+        <v>0.34</v>
       </c>
       <c r="F19" t="n">
-        <v>0.409</v>
+        <v>0.341</v>
       </c>
       <c r="G19" t="n">
-        <v>0.421</v>
+        <v>0.357</v>
       </c>
       <c r="H19" t="n">
-        <v>0.486</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_mean</t>
+          <t>f1_macro_rest_mean</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1022,28 +1022,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.347</v>
+        <v>0.28</v>
       </c>
       <c r="D20" t="n">
-        <v>0.359</v>
+        <v>0.292</v>
       </c>
       <c r="E20" t="n">
-        <v>0.429</v>
+        <v>0.367</v>
       </c>
       <c r="F20" t="n">
-        <v>0.435</v>
+        <v>0.37</v>
       </c>
       <c r="G20" t="n">
-        <v>0.473</v>
+        <v>0.413</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_mean</t>
+          <t>f1_macro_rest_mean</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1052,28 +1052,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.376</v>
+        <v>0.308</v>
       </c>
       <c r="D21" t="n">
-        <v>0.371</v>
+        <v>0.309</v>
       </c>
       <c r="E21" t="n">
-        <v>0.445</v>
+        <v>0.382</v>
       </c>
       <c r="F21" t="n">
-        <v>0.451</v>
+        <v>0.385</v>
       </c>
       <c r="G21" t="n">
-        <v>0.503</v>
+        <v>0.437</v>
       </c>
       <c r="H21" t="n">
-        <v>0.534</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_mean</t>
+          <t>f1_macro_rest_mean</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1082,28 +1082,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.397</v>
+        <v>0.329</v>
       </c>
       <c r="D22" t="n">
-        <v>0.404</v>
+        <v>0.341</v>
       </c>
       <c r="E22" t="n">
-        <v>0.46</v>
+        <v>0.398</v>
       </c>
       <c r="F22" t="n">
-        <v>0.464</v>
+        <v>0.4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.517</v>
+        <v>0.461</v>
       </c>
       <c r="H22" t="n">
-        <v>0.548</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_mean</t>
+          <t>accuracy/f1_micro_mean</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1127,13 +1127,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.132</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_mean</t>
+          <t>accuracy/f1_micro_mean</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1142,28 +1142,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.174</v>
+        <v>0.257</v>
       </c>
       <c r="D24" t="n">
-        <v>0.142</v>
+        <v>0.268</v>
       </c>
       <c r="E24" t="n">
-        <v>0.277</v>
+        <v>0.4</v>
       </c>
       <c r="F24" t="n">
-        <v>0.291</v>
+        <v>0.402</v>
       </c>
       <c r="G24" t="n">
-        <v>0.236</v>
+        <v>0.353</v>
       </c>
       <c r="H24" t="n">
-        <v>0.338</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_mean</t>
+          <t>accuracy/f1_micro_mean</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1172,28 +1172,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.28</v>
+        <v>0.416</v>
       </c>
       <c r="D25" t="n">
-        <v>0.301</v>
+        <v>0.43</v>
       </c>
       <c r="E25" t="n">
-        <v>0.367</v>
+        <v>0.494</v>
       </c>
       <c r="F25" t="n">
-        <v>0.381</v>
+        <v>0.524</v>
       </c>
       <c r="G25" t="n">
-        <v>0.281</v>
+        <v>0.445</v>
       </c>
       <c r="H25" t="n">
-        <v>0.467</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_mean</t>
+          <t>accuracy/f1_micro_mean</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1202,28 +1202,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="D26" t="n">
-        <v>0.323</v>
+        <v>0.463</v>
       </c>
       <c r="E26" t="n">
-        <v>0.404</v>
+        <v>0.539</v>
       </c>
       <c r="F26" t="n">
-        <v>0.409</v>
+        <v>0.526</v>
       </c>
       <c r="G26" t="n">
-        <v>0.421</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0.486</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_mean</t>
+          <t>accuracy/f1_micro_mean</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1232,28 +1232,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.347</v>
+        <v>0.486</v>
       </c>
       <c r="D27" t="n">
-        <v>0.359</v>
+        <v>0.51</v>
       </c>
       <c r="E27" t="n">
-        <v>0.429</v>
+        <v>0.58</v>
       </c>
       <c r="F27" t="n">
-        <v>0.435</v>
+        <v>0.55</v>
       </c>
       <c r="G27" t="n">
-        <v>0.473</v>
+        <v>0.602</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_mean</t>
+          <t>accuracy/f1_micro_mean</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1262,28 +1262,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.376</v>
+        <v>0.52</v>
       </c>
       <c r="D28" t="n">
-        <v>0.371</v>
+        <v>0.535</v>
       </c>
       <c r="E28" t="n">
-        <v>0.445</v>
+        <v>0.589</v>
       </c>
       <c r="F28" t="n">
-        <v>0.451</v>
+        <v>0.569</v>
       </c>
       <c r="G28" t="n">
-        <v>0.503</v>
+        <v>0.614</v>
       </c>
       <c r="H28" t="n">
-        <v>0.534</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_mean</t>
+          <t>accuracy/f1_micro_mean</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.397</v>
+        <v>0.541</v>
       </c>
       <c r="D29" t="n">
-        <v>0.404</v>
+        <v>0.555</v>
       </c>
       <c r="E29" t="n">
-        <v>0.46</v>
+        <v>0.598</v>
       </c>
       <c r="F29" t="n">
-        <v>0.464</v>
+        <v>0.58</v>
       </c>
       <c r="G29" t="n">
-        <v>0.517</v>
+        <v>0.636</v>
       </c>
       <c r="H29" t="n">
-        <v>0.548</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_mean</t>
+          <t>accuracy_balanced_mean</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1337,13 +1337,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.016</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_mean</t>
+          <t>accuracy_balanced_mean</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1352,28 +1352,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.257</v>
+        <v>0.174</v>
       </c>
       <c r="D31" t="n">
-        <v>0.268</v>
+        <v>0.142</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4</v>
+        <v>0.277</v>
       </c>
       <c r="F31" t="n">
-        <v>0.402</v>
+        <v>0.291</v>
       </c>
       <c r="G31" t="n">
-        <v>0.353</v>
+        <v>0.236</v>
       </c>
       <c r="H31" t="n">
-        <v>0.384</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_mean</t>
+          <t>accuracy_balanced_mean</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1382,28 +1382,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.416</v>
+        <v>0.28</v>
       </c>
       <c r="D32" t="n">
-        <v>0.43</v>
+        <v>0.301</v>
       </c>
       <c r="E32" t="n">
-        <v>0.494</v>
+        <v>0.367</v>
       </c>
       <c r="F32" t="n">
-        <v>0.524</v>
+        <v>0.381</v>
       </c>
       <c r="G32" t="n">
-        <v>0.445</v>
+        <v>0.281</v>
       </c>
       <c r="H32" t="n">
-        <v>0.52</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_mean</t>
+          <t>accuracy_balanced_mean</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1412,28 +1412,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="D33" t="n">
-        <v>0.463</v>
+        <v>0.323</v>
       </c>
       <c r="E33" t="n">
-        <v>0.539</v>
+        <v>0.404</v>
       </c>
       <c r="F33" t="n">
-        <v>0.526</v>
+        <v>0.409</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.421</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_mean</t>
+          <t>accuracy_balanced_mean</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1442,28 +1442,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.486</v>
+        <v>0.347</v>
       </c>
       <c r="D34" t="n">
-        <v>0.51</v>
+        <v>0.359</v>
       </c>
       <c r="E34" t="n">
-        <v>0.58</v>
+        <v>0.429</v>
       </c>
       <c r="F34" t="n">
-        <v>0.55</v>
+        <v>0.435</v>
       </c>
       <c r="G34" t="n">
-        <v>0.602</v>
+        <v>0.473</v>
       </c>
       <c r="H34" t="n">
-        <v>0.589</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_mean</t>
+          <t>accuracy_balanced_mean</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1472,28 +1472,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.52</v>
+        <v>0.376</v>
       </c>
       <c r="D35" t="n">
-        <v>0.535</v>
+        <v>0.371</v>
       </c>
       <c r="E35" t="n">
-        <v>0.589</v>
+        <v>0.445</v>
       </c>
       <c r="F35" t="n">
-        <v>0.569</v>
+        <v>0.451</v>
       </c>
       <c r="G35" t="n">
-        <v>0.614</v>
+        <v>0.503</v>
       </c>
       <c r="H35" t="n">
-        <v>0.609</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_mean</t>
+          <t>accuracy_balanced_mean</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1502,28 +1502,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.541</v>
+        <v>0.397</v>
       </c>
       <c r="D36" t="n">
-        <v>0.555</v>
+        <v>0.404</v>
       </c>
       <c r="E36" t="n">
-        <v>0.598</v>
+        <v>0.46</v>
       </c>
       <c r="F36" t="n">
-        <v>0.58</v>
+        <v>0.464</v>
       </c>
       <c r="G36" t="n">
-        <v>0.636</v>
+        <v>0.517</v>
       </c>
       <c r="H36" t="n">
-        <v>0.629</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_mean</t>
+          <t>recall_macro_mean</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1547,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.448</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_mean</t>
+          <t>recall_macro_mean</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1562,28 +1562,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.173</v>
+        <v>0.174</v>
       </c>
       <c r="D38" t="n">
-        <v>0.138</v>
+        <v>0.142</v>
       </c>
       <c r="E38" t="n">
-        <v>0.307</v>
+        <v>0.277</v>
       </c>
       <c r="F38" t="n">
-        <v>0.309</v>
+        <v>0.291</v>
       </c>
       <c r="G38" t="n">
-        <v>0.287</v>
+        <v>0.236</v>
       </c>
       <c r="H38" t="n">
-        <v>0.355</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_mean</t>
+          <t>recall_macro_mean</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1592,28 +1592,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.309</v>
+        <v>0.28</v>
       </c>
       <c r="D39" t="n">
-        <v>0.321</v>
+        <v>0.301</v>
       </c>
       <c r="E39" t="n">
-        <v>0.39</v>
+        <v>0.367</v>
       </c>
       <c r="F39" t="n">
-        <v>0.413</v>
+        <v>0.381</v>
       </c>
       <c r="G39" t="n">
-        <v>0.338</v>
+        <v>0.281</v>
       </c>
       <c r="H39" t="n">
-        <v>0.45</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_mean</t>
+          <t>recall_macro_mean</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1622,28 +1622,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.313</v>
+        <v>0.31</v>
       </c>
       <c r="D40" t="n">
-        <v>0.35</v>
+        <v>0.323</v>
       </c>
       <c r="E40" t="n">
-        <v>0.429</v>
+        <v>0.404</v>
       </c>
       <c r="F40" t="n">
-        <v>0.415</v>
+        <v>0.409</v>
       </c>
       <c r="G40" t="n">
-        <v>0.459</v>
+        <v>0.421</v>
       </c>
       <c r="H40" t="n">
-        <v>0.462</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_mean</t>
+          <t>recall_macro_mean</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1652,28 +1652,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.372</v>
+        <v>0.347</v>
       </c>
       <c r="D41" t="n">
-        <v>0.401</v>
+        <v>0.359</v>
       </c>
       <c r="E41" t="n">
-        <v>0.478</v>
+        <v>0.429</v>
       </c>
       <c r="F41" t="n">
-        <v>0.444</v>
+        <v>0.435</v>
       </c>
       <c r="G41" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.5</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.488</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_mean</t>
+          <t>recall_macro_mean</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1682,28 +1682,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.405</v>
+        <v>0.376</v>
       </c>
       <c r="D42" t="n">
-        <v>0.47</v>
+        <v>0.371</v>
       </c>
       <c r="E42" t="n">
-        <v>0.483</v>
+        <v>0.445</v>
       </c>
       <c r="F42" t="n">
-        <v>0.458</v>
+        <v>0.451</v>
       </c>
       <c r="G42" t="n">
-        <v>0.516</v>
+        <v>0.503</v>
       </c>
       <c r="H42" t="n">
-        <v>0.503</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_mean</t>
+          <t>recall_macro_mean</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1712,28 +1712,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.426</v>
+        <v>0.397</v>
       </c>
       <c r="D43" t="n">
-        <v>0.483</v>
+        <v>0.404</v>
       </c>
       <c r="E43" t="n">
-        <v>0.497</v>
+        <v>0.46</v>
       </c>
       <c r="F43" t="n">
-        <v>0.473</v>
+        <v>0.464</v>
       </c>
       <c r="G43" t="n">
-        <v>0.541</v>
+        <v>0.517</v>
       </c>
       <c r="H43" t="n">
-        <v>0.52</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_mean</t>
+          <t>recall_micro_mean</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1763,7 +1763,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_mean</t>
+          <t>recall_micro_mean</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1793,7 +1793,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_mean</t>
+          <t>recall_micro_mean</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1823,7 +1823,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_mean</t>
+          <t>recall_micro_mean</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1853,7 +1853,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_mean</t>
+          <t>recall_micro_mean</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1883,7 +1883,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_mean</t>
+          <t>recall_micro_mean</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1913,7 +1913,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_mean</t>
+          <t>recall_micro_mean</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1943,7 +1943,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_mean</t>
+          <t>recall_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1967,13 +1967,13 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_mean</t>
+          <t>recall_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1982,28 +1982,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.083</v>
+        <v>0.354</v>
       </c>
       <c r="D52" t="n">
-        <v>0.049</v>
+        <v>0.477</v>
       </c>
       <c r="E52" t="n">
-        <v>0.242</v>
+        <v>0.543</v>
       </c>
       <c r="F52" t="n">
-        <v>0.259</v>
+        <v>0.523</v>
       </c>
       <c r="G52" t="n">
-        <v>0.177</v>
+        <v>0.463</v>
       </c>
       <c r="H52" t="n">
-        <v>0.274</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_mean</t>
+          <t>recall_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2012,28 +2012,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.248</v>
+        <v>0.573</v>
       </c>
       <c r="D53" t="n">
-        <v>0.275</v>
+        <v>0.573</v>
       </c>
       <c r="E53" t="n">
-        <v>0.356</v>
+        <v>0.628</v>
       </c>
       <c r="F53" t="n">
-        <v>0.389</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>0.244</v>
+        <v>0.61</v>
       </c>
       <c r="H53" t="n">
-        <v>0.422</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_mean</t>
+          <t>recall_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2042,28 +2042,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.272</v>
+        <v>0.528</v>
       </c>
       <c r="D54" t="n">
-        <v>0.311</v>
+        <v>0.619</v>
       </c>
       <c r="E54" t="n">
-        <v>0.411</v>
+        <v>0.677</v>
       </c>
       <c r="F54" t="n">
-        <v>0.402</v>
+        <v>0.643</v>
       </c>
       <c r="G54" t="n">
-        <v>0.438</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0.469</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_mean</t>
+          <t>recall_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2072,28 +2072,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.342</v>
+        <v>0.63</v>
       </c>
       <c r="D55" t="n">
-        <v>0.367</v>
+        <v>0.677</v>
       </c>
       <c r="E55" t="n">
-        <v>0.458</v>
+        <v>0.743</v>
       </c>
       <c r="F55" t="n">
-        <v>0.433</v>
+        <v>0.657</v>
       </c>
       <c r="G55" t="n">
-        <v>0.498</v>
+        <v>0.698</v>
       </c>
       <c r="H55" t="n">
-        <v>0.495</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_mean</t>
+          <t>recall_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2102,28 +2102,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.385</v>
+        <v>0.674</v>
       </c>
       <c r="D56" t="n">
-        <v>0.394</v>
+        <v>0.726</v>
       </c>
       <c r="E56" t="n">
-        <v>0.472</v>
+        <v>0.739</v>
       </c>
       <c r="F56" t="n">
-        <v>0.457</v>
+        <v>0.676</v>
       </c>
       <c r="G56" t="n">
-        <v>0.518</v>
+        <v>0.68</v>
       </c>
       <c r="H56" t="n">
-        <v>0.521</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_mean</t>
+          <t>recall_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2132,28 +2132,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.411</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.426</v>
+        <v>0.715</v>
       </c>
       <c r="E57" t="n">
-        <v>0.486</v>
+        <v>0.734</v>
       </c>
       <c r="F57" t="n">
-        <v>0.47</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>0.542</v>
+        <v>0.734</v>
       </c>
       <c r="H57" t="n">
-        <v>0.544</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_mean</t>
+          <t>recall_macro_rest_mean</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.047</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_mean</t>
+          <t>recall_macro_rest_mean</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2192,28 +2192,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.083</v>
+        <v>0.114</v>
       </c>
       <c r="D59" t="n">
-        <v>0.057</v>
+        <v>0.03</v>
       </c>
       <c r="E59" t="n">
-        <v>0.246</v>
+        <v>0.188</v>
       </c>
       <c r="F59" t="n">
-        <v>0.264</v>
+        <v>0.214</v>
       </c>
       <c r="G59" t="n">
-        <v>0.184</v>
+        <v>0.16</v>
       </c>
       <c r="H59" t="n">
-        <v>0.283</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_mean</t>
+          <t>recall_macro_rest_mean</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2222,28 +2222,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.25</v>
+        <v>0.182</v>
       </c>
       <c r="D60" t="n">
-        <v>0.276</v>
+        <v>0.21</v>
       </c>
       <c r="E60" t="n">
-        <v>0.357</v>
+        <v>0.28</v>
       </c>
       <c r="F60" t="n">
-        <v>0.392</v>
+        <v>0.279</v>
       </c>
       <c r="G60" t="n">
-        <v>0.253</v>
+        <v>0.171</v>
       </c>
       <c r="H60" t="n">
-        <v>0.426</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_mean</t>
+          <t>recall_macro_rest_mean</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2252,28 +2252,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.272</v>
+        <v>0.237</v>
       </c>
       <c r="D61" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="E61" t="n">
         <v>0.313</v>
       </c>
-      <c r="E61" t="n">
-        <v>0.413</v>
-      </c>
       <c r="F61" t="n">
-        <v>0.403</v>
+        <v>0.331</v>
       </c>
       <c r="G61" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.44</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.471</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_mean</t>
+          <t>recall_macro_rest_mean</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2282,28 +2282,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.344</v>
+        <v>0.253</v>
       </c>
       <c r="D62" t="n">
-        <v>0.371</v>
+        <v>0.254</v>
       </c>
       <c r="E62" t="n">
-        <v>0.463</v>
+        <v>0.325</v>
       </c>
       <c r="F62" t="n">
-        <v>0.434</v>
+        <v>0.361</v>
       </c>
       <c r="G62" t="n">
-        <v>0.499</v>
+        <v>0.397</v>
       </c>
       <c r="H62" t="n">
-        <v>0.496</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_mean</t>
+          <t>recall_macro_rest_mean</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2312,28 +2312,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.388</v>
+        <v>0.277</v>
       </c>
       <c r="D63" t="n">
-        <v>0.402</v>
+        <v>0.253</v>
       </c>
       <c r="E63" t="n">
-        <v>0.476</v>
+        <v>0.346</v>
       </c>
       <c r="F63" t="n">
-        <v>0.458</v>
+        <v>0.376</v>
       </c>
       <c r="G63" t="n">
-        <v>0.519</v>
+        <v>0.443</v>
       </c>
       <c r="H63" t="n">
-        <v>0.522</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_mean</t>
+          <t>recall_macro_rest_mean</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2342,28 +2342,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.414</v>
+        <v>0.299</v>
       </c>
       <c r="D64" t="n">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="E64" t="n">
-        <v>0.489</v>
+        <v>0.369</v>
       </c>
       <c r="F64" t="n">
-        <v>0.471</v>
+        <v>0.391</v>
       </c>
       <c r="G64" t="n">
-        <v>0.544</v>
+        <v>0.445</v>
       </c>
       <c r="H64" t="n">
-        <v>0.545</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>precision_macro_mean</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2387,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>precision_macro_mean</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2402,28 +2402,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.005</v>
+        <v>0.173</v>
       </c>
       <c r="D66" t="n">
-        <v>0.002</v>
+        <v>0.138</v>
       </c>
       <c r="E66" t="n">
-        <v>0.004</v>
+        <v>0.307</v>
       </c>
       <c r="F66" t="n">
-        <v>0.011</v>
+        <v>0.309</v>
       </c>
       <c r="G66" t="n">
-        <v>0.016</v>
+        <v>0.287</v>
       </c>
       <c r="H66" t="n">
-        <v>0.013</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>precision_macro_mean</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2432,28 +2432,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.012</v>
+        <v>0.309</v>
       </c>
       <c r="D67" t="n">
-        <v>0.012</v>
+        <v>0.321</v>
       </c>
       <c r="E67" t="n">
-        <v>0.012</v>
+        <v>0.39</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01</v>
+        <v>0.413</v>
       </c>
       <c r="G67" t="n">
-        <v>0.15</v>
+        <v>0.338</v>
       </c>
       <c r="H67" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>precision_macro_mean</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2462,28 +2462,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.011</v>
+        <v>0.313</v>
       </c>
       <c r="D68" t="n">
-        <v>0.012</v>
+        <v>0.35</v>
       </c>
       <c r="E68" t="n">
-        <v>0.008</v>
+        <v>0.429</v>
       </c>
       <c r="F68" t="n">
-        <v>0.012</v>
+        <v>0.415</v>
       </c>
       <c r="G68" t="n">
-        <v>0.012</v>
+        <v>0.459</v>
       </c>
       <c r="H68" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>precision_macro_mean</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2492,28 +2492,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.004</v>
+        <v>0.372</v>
       </c>
       <c r="D69" t="n">
-        <v>0.002</v>
+        <v>0.401</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002</v>
+        <v>0.478</v>
       </c>
       <c r="F69" t="n">
-        <v>0.006</v>
+        <v>0.444</v>
       </c>
       <c r="G69" t="n">
-        <v>0.006</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
-        <v>0.004</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>precision_macro_mean</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2522,28 +2522,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.003</v>
+        <v>0.405</v>
       </c>
       <c r="D70" t="n">
-        <v>0.005</v>
+        <v>0.47</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002</v>
+        <v>0.483</v>
       </c>
       <c r="F70" t="n">
-        <v>0.005</v>
+        <v>0.458</v>
       </c>
       <c r="G70" t="n">
-        <v>0.002</v>
+        <v>0.516</v>
       </c>
       <c r="H70" t="n">
-        <v>0.006</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>precision_macro_mean</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.001</v>
+        <v>0.426</v>
       </c>
       <c r="D71" t="n">
-        <v>0.001</v>
+        <v>0.483</v>
       </c>
       <c r="E71" t="n">
-        <v>0.001</v>
+        <v>0.497</v>
       </c>
       <c r="F71" t="n">
-        <v>0.004</v>
+        <v>0.473</v>
       </c>
       <c r="G71" t="n">
-        <v>0.006</v>
+        <v>0.541</v>
       </c>
       <c r="H71" t="n">
-        <v>0.005</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_std</t>
+          <t>precision_micro_mean</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2597,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_std</t>
+          <t>precision_micro_mean</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2612,28 +2612,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.025</v>
+        <v>0.257</v>
       </c>
       <c r="D73" t="n">
-        <v>0.025</v>
+        <v>0.268</v>
       </c>
       <c r="E73" t="n">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="F73" t="n">
-        <v>0.019</v>
+        <v>0.402</v>
       </c>
       <c r="G73" t="n">
-        <v>0.007</v>
+        <v>0.353</v>
       </c>
       <c r="H73" t="n">
-        <v>0.034</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_std</t>
+          <t>precision_micro_mean</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2642,28 +2642,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.013</v>
+        <v>0.416</v>
       </c>
       <c r="D74" t="n">
-        <v>0.013</v>
+        <v>0.43</v>
       </c>
       <c r="E74" t="n">
-        <v>0.011</v>
+        <v>0.494</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01</v>
+        <v>0.524</v>
       </c>
       <c r="G74" t="n">
-        <v>0.094</v>
+        <v>0.445</v>
       </c>
       <c r="H74" t="n">
-        <v>0.011</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_std</t>
+          <t>precision_micro_mean</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2672,28 +2672,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.012</v>
+        <v>0.42</v>
       </c>
       <c r="D75" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.463</v>
       </c>
       <c r="E75" t="n">
-        <v>0.005</v>
+        <v>0.539</v>
       </c>
       <c r="F75" t="n">
-        <v>0.011</v>
+        <v>0.526</v>
       </c>
       <c r="G75" t="n">
-        <v>0.007</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0.015</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_std</t>
+          <t>precision_micro_mean</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2702,28 +2702,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.004</v>
+        <v>0.486</v>
       </c>
       <c r="D76" t="n">
-        <v>0.003</v>
+        <v>0.51</v>
       </c>
       <c r="E76" t="n">
-        <v>0.002</v>
+        <v>0.58</v>
       </c>
       <c r="F76" t="n">
-        <v>0.006</v>
+        <v>0.55</v>
       </c>
       <c r="G76" t="n">
-        <v>0.001</v>
+        <v>0.602</v>
       </c>
       <c r="H76" t="n">
-        <v>0.007</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_std</t>
+          <t>precision_micro_mean</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2732,28 +2732,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.001</v>
+        <v>0.52</v>
       </c>
       <c r="D77" t="n">
-        <v>0.004</v>
+        <v>0.535</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001</v>
+        <v>0.589</v>
       </c>
       <c r="F77" t="n">
-        <v>0.001</v>
+        <v>0.569</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01</v>
+        <v>0.614</v>
       </c>
       <c r="H77" t="n">
-        <v>0.004</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_std</t>
+          <t>precision_micro_mean</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2762,28 +2762,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.001</v>
+        <v>0.541</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>0.555</v>
       </c>
       <c r="E78" t="n">
-        <v>0.001</v>
+        <v>0.598</v>
       </c>
       <c r="F78" t="n">
-        <v>0.001</v>
+        <v>0.58</v>
       </c>
       <c r="G78" t="n">
-        <v>0.004</v>
+        <v>0.636</v>
       </c>
       <c r="H78" t="n">
-        <v>0.006</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>precision_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>precision_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2822,28 +2822,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.003</v>
+        <v>0.371</v>
       </c>
       <c r="D80" t="n">
-        <v>0.004</v>
+        <v>0.342</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002</v>
+        <v>0.475</v>
       </c>
       <c r="F80" t="n">
-        <v>0.007</v>
+        <v>0.524</v>
       </c>
       <c r="G80" t="n">
-        <v>0.021</v>
+        <v>0.45</v>
       </c>
       <c r="H80" t="n">
-        <v>0.012</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>precision_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2852,28 +2852,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.01</v>
+        <v>0.466</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01</v>
+        <v>0.499</v>
       </c>
       <c r="E81" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.544</v>
       </c>
       <c r="F81" t="n">
-        <v>0.006</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>0.111</v>
+        <v>0.554</v>
       </c>
       <c r="H81" t="n">
-        <v>0.013</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>precision_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2882,28 +2882,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.011</v>
+        <v>0.501</v>
       </c>
       <c r="D82" t="n">
-        <v>0.012</v>
+        <v>0.507</v>
       </c>
       <c r="E82" t="n">
-        <v>0.007</v>
+        <v>0.579</v>
       </c>
       <c r="F82" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.582</v>
       </c>
       <c r="G82" t="n">
-        <v>0.016</v>
+        <v>0.613</v>
       </c>
       <c r="H82" t="n">
-        <v>0.007</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>precision_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2912,28 +2912,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.004</v>
+        <v>0.535</v>
       </c>
       <c r="D83" t="n">
-        <v>0.002</v>
+        <v>0.536</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001</v>
+        <v>0.595</v>
       </c>
       <c r="F83" t="n">
-        <v>0.006</v>
+        <v>0.606</v>
       </c>
       <c r="G83" t="n">
-        <v>0.006</v>
+        <v>0.656</v>
       </c>
       <c r="H83" t="n">
-        <v>0.007</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>precision_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2942,28 +2942,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.004</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.004</v>
+        <v>0.54</v>
       </c>
       <c r="E84" t="n">
-        <v>0.002</v>
+        <v>0.609</v>
       </c>
       <c r="F84" t="n">
-        <v>0.006</v>
+        <v>0.62</v>
       </c>
       <c r="G84" t="n">
-        <v>0.004</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0.005</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>precision_macro_top4th_mean</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2972,28 +2972,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.001</v>
+        <v>0.578</v>
       </c>
       <c r="D85" t="n">
-        <v>0.002</v>
+        <v>0.577</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002</v>
+        <v>0.625</v>
       </c>
       <c r="F85" t="n">
-        <v>0.005</v>
+        <v>0.627</v>
       </c>
       <c r="G85" t="n">
-        <v>0.013</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>0.004</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_std</t>
+          <t>precision_macro_rest_mean</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3017,13 +3017,13 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_std</t>
+          <t>precision_macro_rest_mean</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3032,28 +3032,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.003</v>
+        <v>0.108</v>
       </c>
       <c r="D87" t="n">
-        <v>0.004</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>0.002</v>
+        <v>0.251</v>
       </c>
       <c r="F87" t="n">
-        <v>0.007</v>
+        <v>0.237</v>
       </c>
       <c r="G87" t="n">
-        <v>0.021</v>
+        <v>0.233</v>
       </c>
       <c r="H87" t="n">
-        <v>0.012</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_std</t>
+          <t>precision_macro_rest_mean</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3062,28 +3062,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.01</v>
+        <v>0.257</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01</v>
+        <v>0.262</v>
       </c>
       <c r="E88" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.338</v>
       </c>
       <c r="F88" t="n">
-        <v>0.006</v>
+        <v>0.365</v>
       </c>
       <c r="G88" t="n">
-        <v>0.111</v>
+        <v>0.266</v>
       </c>
       <c r="H88" t="n">
-        <v>0.013</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_std</t>
+          <t>precision_macro_rest_mean</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3092,28 +3092,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.011</v>
+        <v>0.251</v>
       </c>
       <c r="D89" t="n">
-        <v>0.012</v>
+        <v>0.297</v>
       </c>
       <c r="E89" t="n">
-        <v>0.007</v>
+        <v>0.379</v>
       </c>
       <c r="F89" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.359</v>
       </c>
       <c r="G89" t="n">
-        <v>0.016</v>
+        <v>0.408</v>
       </c>
       <c r="H89" t="n">
-        <v>0.007</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_std</t>
+          <t>precision_macro_rest_mean</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3122,28 +3122,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.004</v>
+        <v>0.318</v>
       </c>
       <c r="D90" t="n">
-        <v>0.002</v>
+        <v>0.356</v>
       </c>
       <c r="E90" t="n">
-        <v>0.001</v>
+        <v>0.439</v>
       </c>
       <c r="F90" t="n">
-        <v>0.006</v>
+        <v>0.39</v>
       </c>
       <c r="G90" t="n">
-        <v>0.006</v>
+        <v>0.448</v>
       </c>
       <c r="H90" t="n">
-        <v>0.007</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_std</t>
+          <t>precision_macro_rest_mean</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3152,28 +3152,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.004</v>
+        <v>0.353</v>
       </c>
       <c r="D91" t="n">
-        <v>0.004</v>
+        <v>0.447</v>
       </c>
       <c r="E91" t="n">
-        <v>0.002</v>
+        <v>0.44</v>
       </c>
       <c r="F91" t="n">
-        <v>0.006</v>
+        <v>0.405</v>
       </c>
       <c r="G91" t="n">
-        <v>0.004</v>
+        <v>0.457</v>
       </c>
       <c r="H91" t="n">
-        <v>0.005</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_std</t>
+          <t>precision_macro_rest_mean</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3182,28 +3182,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.001</v>
+        <v>0.375</v>
       </c>
       <c r="D92" t="n">
-        <v>0.002</v>
+        <v>0.452</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002</v>
+        <v>0.454</v>
       </c>
       <c r="F92" t="n">
-        <v>0.005</v>
+        <v>0.421</v>
       </c>
       <c r="G92" t="n">
-        <v>0.013</v>
+        <v>0.493</v>
       </c>
       <c r="H92" t="n">
-        <v>0.004</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_std</t>
+          <t>accuracy_top4th_mean</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3233,7 +3233,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_std</t>
+          <t>accuracy_top4th_mean</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3242,28 +3242,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.025</v>
+        <v>0.353</v>
       </c>
       <c r="D94" t="n">
-        <v>0.025</v>
+        <v>0.449</v>
       </c>
       <c r="E94" t="n">
-        <v>0.02</v>
+        <v>0.532</v>
       </c>
       <c r="F94" t="n">
-        <v>0.019</v>
+        <v>0.509</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007</v>
+        <v>0.481</v>
       </c>
       <c r="H94" t="n">
-        <v>0.034</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_std</t>
+          <t>accuracy_top4th_mean</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3272,28 +3272,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.013</v>
+        <v>0.574</v>
       </c>
       <c r="D95" t="n">
-        <v>0.013</v>
+        <v>0.572</v>
       </c>
       <c r="E95" t="n">
-        <v>0.011</v>
+        <v>0.627</v>
       </c>
       <c r="F95" t="n">
-        <v>0.01</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>0.094</v>
+        <v>0.636</v>
       </c>
       <c r="H95" t="n">
-        <v>0.011</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_std</t>
+          <t>accuracy_top4th_mean</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3302,28 +3302,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.012</v>
+        <v>0.528</v>
       </c>
       <c r="D96" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="E96" t="n">
-        <v>0.005</v>
+        <v>0.678</v>
       </c>
       <c r="F96" t="n">
-        <v>0.011</v>
+        <v>0.641</v>
       </c>
       <c r="G96" t="n">
-        <v>0.007</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>0.015</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_std</t>
+          <t>accuracy_top4th_mean</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3332,28 +3332,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.004</v>
+        <v>0.633</v>
       </c>
       <c r="D97" t="n">
-        <v>0.003</v>
+        <v>0.679</v>
       </c>
       <c r="E97" t="n">
-        <v>0.002</v>
+        <v>0.744</v>
       </c>
       <c r="F97" t="n">
-        <v>0.006</v>
+        <v>0.654</v>
       </c>
       <c r="G97" t="n">
-        <v>0.001</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
-        <v>0.007</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_std</t>
+          <t>accuracy_top4th_mean</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3362,28 +3362,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.001</v>
+        <v>0.676</v>
       </c>
       <c r="D98" t="n">
-        <v>0.004</v>
+        <v>0.726</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001</v>
+        <v>0.74</v>
       </c>
       <c r="F98" t="n">
-        <v>0.001</v>
+        <v>0.675</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H98" t="n">
-        <v>0.004</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_std</t>
+          <t>accuracy_top4th_mean</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3392,28 +3392,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.001</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>0.718</v>
       </c>
       <c r="E99" t="n">
-        <v>0.001</v>
+        <v>0.735</v>
       </c>
       <c r="F99" t="n">
-        <v>0.001</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>0.004</v>
+        <v>0.731</v>
       </c>
       <c r="H99" t="n">
-        <v>0.006</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_std</t>
+          <t>accuracy_rest_mean</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3437,13 +3437,13 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_std</t>
+          <t>accuracy_rest_mean</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3452,28 +3452,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.004</v>
+        <v>0.137</v>
       </c>
       <c r="D101" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="E101" t="n">
-        <v>0.026</v>
+        <v>0.235</v>
       </c>
       <c r="F101" t="n">
-        <v>0.031</v>
+        <v>0.268</v>
       </c>
       <c r="G101" t="n">
-        <v>0.014</v>
+        <v>0.193</v>
       </c>
       <c r="H101" t="n">
-        <v>0.007</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_std</t>
+          <t>accuracy_rest_mean</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3482,28 +3482,28 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.016</v>
+        <v>0.216</v>
       </c>
       <c r="D102" t="n">
-        <v>0.016</v>
+        <v>0.251</v>
       </c>
       <c r="E102" t="n">
-        <v>0.015</v>
+        <v>0.327</v>
       </c>
       <c r="F102" t="n">
-        <v>0.015</v>
+        <v>0.322</v>
       </c>
       <c r="G102" t="n">
-        <v>0.141</v>
+        <v>0.204</v>
       </c>
       <c r="H102" t="n">
-        <v>0.007</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_std</t>
+          <t>accuracy_rest_mean</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3512,28 +3512,28 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.012</v>
+        <v>0.285</v>
       </c>
       <c r="D103" t="n">
-        <v>0.011</v>
+        <v>0.266</v>
       </c>
       <c r="E103" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.364</v>
       </c>
       <c r="F103" t="n">
-        <v>0.013</v>
+        <v>0.383</v>
       </c>
       <c r="G103" t="n">
-        <v>0.016</v>
+        <v>0.397</v>
       </c>
       <c r="H103" t="n">
-        <v>0.014</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_std</t>
+          <t>accuracy_rest_mean</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3542,28 +3542,28 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.005</v>
+        <v>0.301</v>
       </c>
       <c r="D104" t="n">
-        <v>0.003</v>
+        <v>0.298</v>
       </c>
       <c r="E104" t="n">
-        <v>0.004</v>
+        <v>0.374</v>
       </c>
       <c r="F104" t="n">
-        <v>0.005</v>
+        <v>0.419</v>
       </c>
       <c r="G104" t="n">
-        <v>0.005</v>
+        <v>0.479</v>
       </c>
       <c r="H104" t="n">
-        <v>0.003</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_std</t>
+          <t>accuracy_rest_mean</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3572,28 +3572,28 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.003</v>
+        <v>0.325</v>
       </c>
       <c r="D105" t="n">
-        <v>0.026</v>
+        <v>0.295</v>
       </c>
       <c r="E105" t="n">
-        <v>0.005</v>
+        <v>0.398</v>
       </c>
       <c r="F105" t="n">
-        <v>0.006</v>
+        <v>0.437</v>
       </c>
       <c r="G105" t="n">
-        <v>0.019</v>
+        <v>0.526</v>
       </c>
       <c r="H105" t="n">
-        <v>0.004</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_std</t>
+          <t>accuracy_rest_mean</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3602,28 +3602,28 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.003</v>
+        <v>0.349</v>
       </c>
       <c r="D106" t="n">
-        <v>0.025</v>
+        <v>0.35</v>
       </c>
       <c r="E106" t="n">
-        <v>0.006</v>
+        <v>0.425</v>
       </c>
       <c r="F106" t="n">
-        <v>0.006</v>
+        <v>0.45</v>
       </c>
       <c r="G106" t="n">
-        <v>0.013</v>
+        <v>0.516</v>
       </c>
       <c r="H106" t="n">
-        <v>0.006</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_std</t>
+          <t>cohen_kappa_mean</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3647,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_std</t>
+          <t>cohen_kappa_mean</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3662,28 +3662,28 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.025</v>
+        <v>0.083</v>
       </c>
       <c r="D108" t="n">
-        <v>0.025</v>
+        <v>0.049</v>
       </c>
       <c r="E108" t="n">
-        <v>0.02</v>
+        <v>0.242</v>
       </c>
       <c r="F108" t="n">
-        <v>0.019</v>
+        <v>0.259</v>
       </c>
       <c r="G108" t="n">
-        <v>0.007</v>
+        <v>0.177</v>
       </c>
       <c r="H108" t="n">
-        <v>0.034</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_std</t>
+          <t>cohen_kappa_mean</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3692,28 +3692,28 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.013</v>
+        <v>0.248</v>
       </c>
       <c r="D109" t="n">
-        <v>0.013</v>
+        <v>0.275</v>
       </c>
       <c r="E109" t="n">
-        <v>0.011</v>
+        <v>0.356</v>
       </c>
       <c r="F109" t="n">
-        <v>0.01</v>
+        <v>0.389</v>
       </c>
       <c r="G109" t="n">
-        <v>0.094</v>
+        <v>0.244</v>
       </c>
       <c r="H109" t="n">
-        <v>0.011</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_std</t>
+          <t>cohen_kappa_mean</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3722,28 +3722,28 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.012</v>
+        <v>0.272</v>
       </c>
       <c r="D110" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.311</v>
       </c>
       <c r="E110" t="n">
-        <v>0.005</v>
+        <v>0.411</v>
       </c>
       <c r="F110" t="n">
-        <v>0.011</v>
+        <v>0.402</v>
       </c>
       <c r="G110" t="n">
-        <v>0.007</v>
+        <v>0.438</v>
       </c>
       <c r="H110" t="n">
-        <v>0.015</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_std</t>
+          <t>cohen_kappa_mean</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3752,28 +3752,28 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.004</v>
+        <v>0.342</v>
       </c>
       <c r="D111" t="n">
-        <v>0.003</v>
+        <v>0.367</v>
       </c>
       <c r="E111" t="n">
-        <v>0.002</v>
+        <v>0.458</v>
       </c>
       <c r="F111" t="n">
-        <v>0.006</v>
+        <v>0.433</v>
       </c>
       <c r="G111" t="n">
-        <v>0.001</v>
+        <v>0.498</v>
       </c>
       <c r="H111" t="n">
-        <v>0.007</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_std</t>
+          <t>cohen_kappa_mean</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3782,28 +3782,28 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.001</v>
+        <v>0.385</v>
       </c>
       <c r="D112" t="n">
-        <v>0.004</v>
+        <v>0.394</v>
       </c>
       <c r="E112" t="n">
-        <v>0.001</v>
+        <v>0.472</v>
       </c>
       <c r="F112" t="n">
-        <v>0.001</v>
+        <v>0.457</v>
       </c>
       <c r="G112" t="n">
-        <v>0.01</v>
+        <v>0.518</v>
       </c>
       <c r="H112" t="n">
-        <v>0.004</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_std</t>
+          <t>cohen_kappa_mean</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3812,28 +3812,28 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.001</v>
+        <v>0.411</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>0.426</v>
       </c>
       <c r="E113" t="n">
-        <v>0.001</v>
+        <v>0.486</v>
       </c>
       <c r="F113" t="n">
-        <v>0.001</v>
+        <v>0.47</v>
       </c>
       <c r="G113" t="n">
-        <v>0.004</v>
+        <v>0.542</v>
       </c>
       <c r="H113" t="n">
-        <v>0.006</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_std</t>
+          <t>matthews_corrcoef_mean</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3857,13 +3857,13 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_std</t>
+          <t>matthews_corrcoef_mean</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3872,28 +3872,28 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.016</v>
+        <v>0.083</v>
       </c>
       <c r="D115" t="n">
-        <v>0.012</v>
+        <v>0.057</v>
       </c>
       <c r="E115" t="n">
-        <v>0.014</v>
+        <v>0.246</v>
       </c>
       <c r="F115" t="n">
-        <v>0.016</v>
+        <v>0.264</v>
       </c>
       <c r="G115" t="n">
-        <v>0.01</v>
+        <v>0.184</v>
       </c>
       <c r="H115" t="n">
-        <v>0.03</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_std</t>
+          <t>matthews_corrcoef_mean</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3902,28 +3902,28 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.015</v>
+        <v>0.25</v>
       </c>
       <c r="D116" t="n">
-        <v>0.012</v>
+        <v>0.276</v>
       </c>
       <c r="E116" t="n">
-        <v>0.014</v>
+        <v>0.357</v>
       </c>
       <c r="F116" t="n">
-        <v>0.012</v>
+        <v>0.392</v>
       </c>
       <c r="G116" t="n">
-        <v>0.172</v>
+        <v>0.253</v>
       </c>
       <c r="H116" t="n">
-        <v>0.012</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_std</t>
+          <t>matthews_corrcoef_mean</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3932,28 +3932,28 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.015</v>
+        <v>0.272</v>
       </c>
       <c r="D117" t="n">
-        <v>0.014</v>
+        <v>0.313</v>
       </c>
       <c r="E117" t="n">
-        <v>0.007</v>
+        <v>0.413</v>
       </c>
       <c r="F117" t="n">
-        <v>0.012</v>
+        <v>0.403</v>
       </c>
       <c r="G117" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="H117" t="n">
-        <v>0.013</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_std</t>
+          <t>matthews_corrcoef_mean</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3962,28 +3962,28 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.006</v>
+        <v>0.344</v>
       </c>
       <c r="D118" t="n">
-        <v>0.004</v>
+        <v>0.371</v>
       </c>
       <c r="E118" t="n">
-        <v>0.003</v>
+        <v>0.463</v>
       </c>
       <c r="F118" t="n">
-        <v>0.008</v>
+        <v>0.434</v>
       </c>
       <c r="G118" t="n">
-        <v>0.002</v>
+        <v>0.499</v>
       </c>
       <c r="H118" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_std</t>
+          <t>matthews_corrcoef_mean</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3992,28 +3992,28 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.003</v>
+        <v>0.388</v>
       </c>
       <c r="D119" t="n">
-        <v>0.005</v>
+        <v>0.402</v>
       </c>
       <c r="E119" t="n">
-        <v>0.001</v>
+        <v>0.476</v>
       </c>
       <c r="F119" t="n">
-        <v>0.003</v>
+        <v>0.458</v>
       </c>
       <c r="G119" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.519</v>
       </c>
       <c r="H119" t="n">
-        <v>0.005</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_std</t>
+          <t>matthews_corrcoef_mean</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4022,28 +4022,28 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.001</v>
+        <v>0.414</v>
       </c>
       <c r="D120" t="n">
-        <v>0.001</v>
+        <v>0.43</v>
       </c>
       <c r="E120" t="n">
-        <v>0.002</v>
+        <v>0.489</v>
       </c>
       <c r="F120" t="n">
-        <v>0.002</v>
+        <v>0.471</v>
       </c>
       <c r="G120" t="n">
-        <v>0.001</v>
+        <v>0.544</v>
       </c>
       <c r="H120" t="n">
-        <v>0.007</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4073,7 +4073,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4082,28 +4082,28 @@
         </is>
       </c>
       <c r="C122" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G122" t="n">
         <v>0.016</v>
       </c>
-      <c r="D122" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.008</v>
-      </c>
       <c r="H122" t="n">
-        <v>0.028</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4112,28 +4112,28 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="D123" t="n">
         <v>0.012</v>
       </c>
       <c r="E123" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="F123" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="G123" t="n">
-        <v>0.171</v>
+        <v>0.15</v>
       </c>
       <c r="H123" t="n">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4142,28 +4142,28 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.015</v>
+        <v>0.011</v>
       </c>
       <c r="D124" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="E124" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="F124" t="n">
         <v>0.012</v>
       </c>
       <c r="G124" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H124" t="n">
         <v>0.008999999999999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.012</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4172,28 +4172,28 @@
         </is>
       </c>
       <c r="C125" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F125" t="n">
         <v>0.006</v>
       </c>
-      <c r="D125" t="n">
+      <c r="G125" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H125" t="n">
         <v>0.004</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4205,25 +4205,25 @@
         <v>0.003</v>
       </c>
       <c r="D126" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="E126" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F126" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="G126" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="H126" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4238,15 +4238,3375 @@
         <v>0.001</v>
       </c>
       <c r="E127" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E132" t="n">
         <v>0.002</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F132" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
         <v>0.002</v>
       </c>
-      <c r="G127" t="n">
+      <c r="D134" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D139" t="n">
         <v>0.002</v>
       </c>
-      <c r="H127" t="n">
+      <c r="E139" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>f1_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>accuracy/f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>accuracy/f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>accuracy/f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>accuracy/f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>accuracy/f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>accuracy/f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>accuracy/f1_micro_std</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_balanced_std</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_std</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_std</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_std</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_std</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_std</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_std</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_std</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>recall_micro_std</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>recall_micro_std</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>recall_micro_std</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>recall_micro_std</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>recall_micro_std</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>recall_micro_std</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>recall_micro_std</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>recall_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_std</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_std</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_std</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_std</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_std</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_std</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_std</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_std</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_std</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_std</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_std</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_std</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_std</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>precision_micro_std</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_top4th_std</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>precision_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_top4th_std</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_top4th_std</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_top4th_std</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_top4th_std</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_top4th_std</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_top4th_std</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_top4th_std</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_rest_std</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_rest_std</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_rest_std</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_rest_std</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_rest_std</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_rest_std</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_rest_std</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H239" t="n">
         <v>0.007</v>
       </c>
     </row>

--- a/appendix/metrics_all_manifesto-8.xlsx
+++ b/appendix/metrics_all_manifesto-8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:H295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.018</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +524,10 @@
         <v>0.286</v>
       </c>
       <c r="G3" t="n">
-        <v>0.228</v>
+        <v>0.216</v>
       </c>
       <c r="H3" t="n">
-        <v>0.317</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="4">
@@ -554,10 +554,10 @@
         <v>0.387</v>
       </c>
       <c r="G4" t="n">
-        <v>0.271</v>
+        <v>0.383</v>
       </c>
       <c r="H4" t="n">
-        <v>0.445</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="5">
@@ -584,10 +584,10 @@
         <v>0.408</v>
       </c>
       <c r="G5" t="n">
-        <v>0.429</v>
+        <v>0.438</v>
       </c>
       <c r="H5" t="n">
-        <v>0.466</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
         <v>0.434</v>
       </c>
       <c r="G6" t="n">
-        <v>0.479</v>
+        <v>0.471</v>
       </c>
       <c r="H6" t="n">
         <v>0.49</v>
@@ -644,10 +644,10 @@
         <v>0.45</v>
       </c>
       <c r="G7" t="n">
-        <v>0.499</v>
+        <v>0.497</v>
       </c>
       <c r="H7" t="n">
-        <v>0.511</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="8">
@@ -674,10 +674,10 @@
         <v>0.464</v>
       </c>
       <c r="G8" t="n">
-        <v>0.522</v>
+        <v>0.525</v>
       </c>
       <c r="H8" t="n">
-        <v>0.53</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="9">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="10">
@@ -734,10 +734,10 @@
         <v>0.508</v>
       </c>
       <c r="G10" t="n">
-        <v>0.436</v>
+        <v>0.429</v>
       </c>
       <c r="H10" t="n">
-        <v>0.503</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="11">
@@ -764,10 +764,10 @@
         <v>0.615</v>
       </c>
       <c r="G11" t="n">
-        <v>0.478</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0.619</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="12">
@@ -794,10 +794,10 @@
         <v>0.61</v>
       </c>
       <c r="G12" t="n">
-        <v>0.645</v>
+        <v>0.651</v>
       </c>
       <c r="H12" t="n">
-        <v>0.656</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="13">
@@ -824,10 +824,10 @@
         <v>0.629</v>
       </c>
       <c r="G13" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.676</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.669</v>
       </c>
     </row>
     <row r="14">
@@ -854,10 +854,10 @@
         <v>0.646</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -884,10 +884,10 @@
         <v>0.654</v>
       </c>
       <c r="G15" t="n">
-        <v>0.706</v>
+        <v>0.715</v>
       </c>
       <c r="H15" t="n">
-        <v>0.704</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16">
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.024</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="17">
@@ -944,10 +944,10 @@
         <v>0.212</v>
       </c>
       <c r="G17" t="n">
-        <v>0.159</v>
+        <v>0.145</v>
       </c>
       <c r="H17" t="n">
-        <v>0.255</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="18">
@@ -974,10 +974,10 @@
         <v>0.312</v>
       </c>
       <c r="G18" t="n">
-        <v>0.202</v>
+        <v>0.311</v>
       </c>
       <c r="H18" t="n">
-        <v>0.387</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="19">
@@ -1004,10 +1004,10 @@
         <v>0.341</v>
       </c>
       <c r="G19" t="n">
-        <v>0.357</v>
+        <v>0.367</v>
       </c>
       <c r="H19" t="n">
-        <v>0.403</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="20">
@@ -1034,10 +1034,10 @@
         <v>0.37</v>
       </c>
       <c r="G20" t="n">
-        <v>0.413</v>
+        <v>0.405</v>
       </c>
       <c r="H20" t="n">
-        <v>0.43</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="21">
@@ -1064,10 +1064,10 @@
         <v>0.385</v>
       </c>
       <c r="G21" t="n">
-        <v>0.437</v>
+        <v>0.432</v>
       </c>
       <c r="H21" t="n">
-        <v>0.453</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="22">
@@ -1094,10 +1094,10 @@
         <v>0.4</v>
       </c>
       <c r="G22" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.461</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.472</v>
       </c>
     </row>
     <row r="23">
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.016</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="24">
@@ -1154,10 +1154,10 @@
         <v>0.402</v>
       </c>
       <c r="G24" t="n">
-        <v>0.353</v>
+        <v>0.33</v>
       </c>
       <c r="H24" t="n">
-        <v>0.384</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="25">
@@ -1184,10 +1184,10 @@
         <v>0.524</v>
       </c>
       <c r="G25" t="n">
-        <v>0.445</v>
+        <v>0.512</v>
       </c>
       <c r="H25" t="n">
-        <v>0.52</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="26">
@@ -1214,10 +1214,10 @@
         <v>0.526</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="27">
@@ -1244,10 +1244,10 @@
         <v>0.55</v>
       </c>
       <c r="G27" t="n">
-        <v>0.602</v>
+        <v>0.589</v>
       </c>
       <c r="H27" t="n">
-        <v>0.589</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="28">
@@ -1274,10 +1274,10 @@
         <v>0.569</v>
       </c>
       <c r="G28" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.614</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.609</v>
       </c>
     </row>
     <row r="29">
@@ -1304,7 +1304,7 @@
         <v>0.58</v>
       </c>
       <c r="G29" t="n">
-        <v>0.636</v>
+        <v>0.644</v>
       </c>
       <c r="H29" t="n">
         <v>0.629</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.132</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="31">
@@ -1364,10 +1364,10 @@
         <v>0.291</v>
       </c>
       <c r="G31" t="n">
-        <v>0.236</v>
+        <v>0.222</v>
       </c>
       <c r="H31" t="n">
-        <v>0.338</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="32">
@@ -1394,10 +1394,10 @@
         <v>0.381</v>
       </c>
       <c r="G32" t="n">
-        <v>0.281</v>
+        <v>0.373</v>
       </c>
       <c r="H32" t="n">
-        <v>0.467</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="33">
@@ -1424,10 +1424,10 @@
         <v>0.409</v>
       </c>
       <c r="G33" t="n">
-        <v>0.421</v>
+        <v>0.426</v>
       </c>
       <c r="H33" t="n">
-        <v>0.486</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="34">
@@ -1454,10 +1454,10 @@
         <v>0.435</v>
       </c>
       <c r="G34" t="n">
-        <v>0.473</v>
+        <v>0.466</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="35">
@@ -1484,10 +1484,10 @@
         <v>0.451</v>
       </c>
       <c r="G35" t="n">
-        <v>0.503</v>
+        <v>0.493</v>
       </c>
       <c r="H35" t="n">
-        <v>0.534</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="36">
@@ -1514,10 +1514,10 @@
         <v>0.464</v>
       </c>
       <c r="G36" t="n">
-        <v>0.517</v>
+        <v>0.51</v>
       </c>
       <c r="H36" t="n">
-        <v>0.548</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="37">
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.132</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="38">
@@ -1574,10 +1574,10 @@
         <v>0.291</v>
       </c>
       <c r="G38" t="n">
-        <v>0.236</v>
+        <v>0.222</v>
       </c>
       <c r="H38" t="n">
-        <v>0.338</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="39">
@@ -1604,10 +1604,10 @@
         <v>0.381</v>
       </c>
       <c r="G39" t="n">
-        <v>0.281</v>
+        <v>0.373</v>
       </c>
       <c r="H39" t="n">
-        <v>0.467</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="40">
@@ -1634,10 +1634,10 @@
         <v>0.409</v>
       </c>
       <c r="G40" t="n">
-        <v>0.421</v>
+        <v>0.426</v>
       </c>
       <c r="H40" t="n">
-        <v>0.486</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="41">
@@ -1664,10 +1664,10 @@
         <v>0.435</v>
       </c>
       <c r="G41" t="n">
-        <v>0.473</v>
+        <v>0.466</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="42">
@@ -1694,10 +1694,10 @@
         <v>0.451</v>
       </c>
       <c r="G42" t="n">
-        <v>0.503</v>
+        <v>0.493</v>
       </c>
       <c r="H42" t="n">
-        <v>0.534</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="43">
@@ -1724,10 +1724,10 @@
         <v>0.464</v>
       </c>
       <c r="G43" t="n">
-        <v>0.517</v>
+        <v>0.51</v>
       </c>
       <c r="H43" t="n">
-        <v>0.548</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="44">
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.016</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="45">
@@ -1784,10 +1784,10 @@
         <v>0.402</v>
       </c>
       <c r="G45" t="n">
-        <v>0.353</v>
+        <v>0.33</v>
       </c>
       <c r="H45" t="n">
-        <v>0.384</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="46">
@@ -1814,10 +1814,10 @@
         <v>0.524</v>
       </c>
       <c r="G46" t="n">
-        <v>0.445</v>
+        <v>0.512</v>
       </c>
       <c r="H46" t="n">
-        <v>0.52</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="47">
@@ -1844,10 +1844,10 @@
         <v>0.526</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="48">
@@ -1874,10 +1874,10 @@
         <v>0.55</v>
       </c>
       <c r="G48" t="n">
-        <v>0.602</v>
+        <v>0.589</v>
       </c>
       <c r="H48" t="n">
-        <v>0.589</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="49">
@@ -1904,10 +1904,10 @@
         <v>0.569</v>
       </c>
       <c r="G49" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.614</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.609</v>
       </c>
     </row>
     <row r="50">
@@ -1934,7 +1934,7 @@
         <v>0.58</v>
       </c>
       <c r="G50" t="n">
-        <v>0.636</v>
+        <v>0.644</v>
       </c>
       <c r="H50" t="n">
         <v>0.629</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="52">
@@ -1994,10 +1994,10 @@
         <v>0.523</v>
       </c>
       <c r="G52" t="n">
-        <v>0.463</v>
+        <v>0.446</v>
       </c>
       <c r="H52" t="n">
-        <v>0.439</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="53">
@@ -2024,10 +2024,10 @@
         <v>0.6860000000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>0.61</v>
+        <v>0.648</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="54">
@@ -2054,10 +2054,10 @@
         <v>0.643</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.708</v>
       </c>
       <c r="H54" t="n">
-        <v>0.624</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="55">
@@ -2084,10 +2084,10 @@
         <v>0.657</v>
       </c>
       <c r="G55" t="n">
-        <v>0.698</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0.637</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="56">
@@ -2114,10 +2114,10 @@
         <v>0.676</v>
       </c>
       <c r="G56" t="n">
-        <v>0.68</v>
+        <v>0.733</v>
       </c>
       <c r="H56" t="n">
-        <v>0.646</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="57">
@@ -2144,10 +2144,10 @@
         <v>0.6840000000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>0.734</v>
+        <v>0.769</v>
       </c>
       <c r="H57" t="n">
-        <v>0.674</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="58">
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.177</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="59">
@@ -2204,10 +2204,10 @@
         <v>0.214</v>
       </c>
       <c r="G59" t="n">
-        <v>0.16</v>
+        <v>0.147</v>
       </c>
       <c r="H59" t="n">
-        <v>0.304</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="60">
@@ -2234,10 +2234,10 @@
         <v>0.279</v>
       </c>
       <c r="G60" t="n">
-        <v>0.171</v>
+        <v>0.282</v>
       </c>
       <c r="H60" t="n">
-        <v>0.437</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="61">
@@ -2264,10 +2264,10 @@
         <v>0.331</v>
       </c>
       <c r="G61" t="n">
-        <v>0.334</v>
+        <v>0.332</v>
       </c>
       <c r="H61" t="n">
-        <v>0.44</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="62">
@@ -2294,10 +2294,10 @@
         <v>0.361</v>
       </c>
       <c r="G62" t="n">
-        <v>0.397</v>
+        <v>0.391</v>
       </c>
       <c r="H62" t="n">
-        <v>0.454</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="63">
@@ -2324,10 +2324,10 @@
         <v>0.376</v>
       </c>
       <c r="G63" t="n">
-        <v>0.443</v>
+        <v>0.413</v>
       </c>
       <c r="H63" t="n">
-        <v>0.496</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="64">
@@ -2354,10 +2354,10 @@
         <v>0.391</v>
       </c>
       <c r="G64" t="n">
-        <v>0.445</v>
+        <v>0.423</v>
       </c>
       <c r="H64" t="n">
-        <v>0.506</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="65">
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.448</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="66">
@@ -2414,10 +2414,10 @@
         <v>0.309</v>
       </c>
       <c r="G66" t="n">
-        <v>0.287</v>
+        <v>0.279</v>
       </c>
       <c r="H66" t="n">
-        <v>0.355</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="67">
@@ -2444,10 +2444,10 @@
         <v>0.413</v>
       </c>
       <c r="G67" t="n">
-        <v>0.338</v>
+        <v>0.409</v>
       </c>
       <c r="H67" t="n">
-        <v>0.45</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="68">
@@ -2474,10 +2474,10 @@
         <v>0.415</v>
       </c>
       <c r="G68" t="n">
-        <v>0.459</v>
+        <v>0.468</v>
       </c>
       <c r="H68" t="n">
-        <v>0.462</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="69">
@@ -2504,7 +2504,7 @@
         <v>0.444</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>0.485</v>
       </c>
       <c r="H69" t="n">
         <v>0.488</v>
@@ -2534,10 +2534,10 @@
         <v>0.458</v>
       </c>
       <c r="G70" t="n">
-        <v>0.516</v>
+        <v>0.518</v>
       </c>
       <c r="H70" t="n">
-        <v>0.503</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="71">
@@ -2564,10 +2564,10 @@
         <v>0.473</v>
       </c>
       <c r="G71" t="n">
-        <v>0.541</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0.52</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="72">
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.016</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="73">
@@ -2624,10 +2624,10 @@
         <v>0.402</v>
       </c>
       <c r="G73" t="n">
-        <v>0.353</v>
+        <v>0.33</v>
       </c>
       <c r="H73" t="n">
-        <v>0.384</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="74">
@@ -2654,10 +2654,10 @@
         <v>0.524</v>
       </c>
       <c r="G74" t="n">
-        <v>0.445</v>
+        <v>0.512</v>
       </c>
       <c r="H74" t="n">
-        <v>0.52</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="75">
@@ -2684,10 +2684,10 @@
         <v>0.526</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="76">
@@ -2714,10 +2714,10 @@
         <v>0.55</v>
       </c>
       <c r="G76" t="n">
-        <v>0.602</v>
+        <v>0.589</v>
       </c>
       <c r="H76" t="n">
-        <v>0.589</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="77">
@@ -2744,10 +2744,10 @@
         <v>0.569</v>
       </c>
       <c r="G77" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.614</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.609</v>
       </c>
     </row>
     <row r="78">
@@ -2774,7 +2774,7 @@
         <v>0.58</v>
       </c>
       <c r="G78" t="n">
-        <v>0.636</v>
+        <v>0.644</v>
       </c>
       <c r="H78" t="n">
         <v>0.629</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="80">
@@ -2834,10 +2834,10 @@
         <v>0.524</v>
       </c>
       <c r="G80" t="n">
-        <v>0.45</v>
+        <v>0.441</v>
       </c>
       <c r="H80" t="n">
-        <v>0.612</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="81">
@@ -2864,10 +2864,10 @@
         <v>0.5580000000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>0.554</v>
+        <v>0.575</v>
       </c>
       <c r="H81" t="n">
-        <v>0.699</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="82">
@@ -2894,10 +2894,10 @@
         <v>0.582</v>
       </c>
       <c r="G82" t="n">
-        <v>0.613</v>
+        <v>0.604</v>
       </c>
       <c r="H82" t="n">
-        <v>0.696</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="83">
@@ -2924,10 +2924,10 @@
         <v>0.606</v>
       </c>
       <c r="G83" t="n">
-        <v>0.656</v>
+        <v>0.646</v>
       </c>
       <c r="H83" t="n">
-        <v>0.706</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="84">
@@ -2954,10 +2954,10 @@
         <v>0.62</v>
       </c>
       <c r="G84" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.658</v>
       </c>
       <c r="H84" t="n">
-        <v>0.733</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="85">
@@ -2984,10 +2984,10 @@
         <v>0.627</v>
       </c>
       <c r="G85" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="H85" t="n">
-        <v>0.737</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="86">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.397</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="87">
@@ -3044,10 +3044,10 @@
         <v>0.237</v>
       </c>
       <c r="G87" t="n">
-        <v>0.233</v>
+        <v>0.226</v>
       </c>
       <c r="H87" t="n">
-        <v>0.269</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="88">
@@ -3074,10 +3074,10 @@
         <v>0.365</v>
       </c>
       <c r="G88" t="n">
-        <v>0.266</v>
+        <v>0.354</v>
       </c>
       <c r="H88" t="n">
-        <v>0.367</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="89">
@@ -3104,10 +3104,10 @@
         <v>0.359</v>
       </c>
       <c r="G89" t="n">
-        <v>0.408</v>
+        <v>0.422</v>
       </c>
       <c r="H89" t="n">
-        <v>0.385</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="90">
@@ -3134,10 +3134,10 @@
         <v>0.39</v>
       </c>
       <c r="G90" t="n">
-        <v>0.448</v>
+        <v>0.432</v>
       </c>
       <c r="H90" t="n">
-        <v>0.416</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="91">
@@ -3164,10 +3164,10 @@
         <v>0.405</v>
       </c>
       <c r="G91" t="n">
-        <v>0.457</v>
+        <v>0.472</v>
       </c>
       <c r="H91" t="n">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="92">
@@ -3194,10 +3194,10 @@
         <v>0.421</v>
       </c>
       <c r="G92" t="n">
-        <v>0.493</v>
+        <v>0.524</v>
       </c>
       <c r="H92" t="n">
-        <v>0.447</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="93">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="94">
@@ -3254,10 +3254,10 @@
         <v>0.509</v>
       </c>
       <c r="G94" t="n">
-        <v>0.481</v>
+        <v>0.439</v>
       </c>
       <c r="H94" t="n">
-        <v>0.43</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="95">
@@ -3284,10 +3284,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>0.636</v>
+        <v>0.652</v>
       </c>
       <c r="H95" t="n">
-        <v>0.554</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="96">
@@ -3314,10 +3314,10 @@
         <v>0.641</v>
       </c>
       <c r="G96" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.712</v>
       </c>
       <c r="H96" t="n">
-        <v>0.622</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="97">
@@ -3344,10 +3344,10 @@
         <v>0.654</v>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0.637</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="98">
@@ -3374,10 +3374,10 @@
         <v>0.675</v>
       </c>
       <c r="G98" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.731</v>
       </c>
       <c r="H98" t="n">
-        <v>0.647</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="99">
@@ -3404,10 +3404,10 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>0.731</v>
+        <v>0.769</v>
       </c>
       <c r="H99" t="n">
-        <v>0.674</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="100">
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.036</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="101">
@@ -3467,7 +3467,7 @@
         <v>0.193</v>
       </c>
       <c r="H101" t="n">
-        <v>0.326</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="102">
@@ -3494,10 +3494,10 @@
         <v>0.322</v>
       </c>
       <c r="G102" t="n">
-        <v>0.204</v>
+        <v>0.335</v>
       </c>
       <c r="H102" t="n">
-        <v>0.477</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="103">
@@ -3524,10 +3524,10 @@
         <v>0.383</v>
       </c>
       <c r="G103" t="n">
-        <v>0.397</v>
+        <v>0.386</v>
       </c>
       <c r="H103" t="n">
-        <v>0.495</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="104">
@@ -3554,10 +3554,10 @@
         <v>0.419</v>
       </c>
       <c r="G104" t="n">
-        <v>0.479</v>
+        <v>0.464</v>
       </c>
       <c r="H104" t="n">
-        <v>0.529</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="105">
@@ -3584,10 +3584,10 @@
         <v>0.437</v>
       </c>
       <c r="G105" t="n">
-        <v>0.526</v>
+        <v>0.479</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="106">
@@ -3614,10 +3614,10 @@
         <v>0.45</v>
       </c>
       <c r="G106" t="n">
-        <v>0.516</v>
+        <v>0.488</v>
       </c>
       <c r="H106" t="n">
-        <v>0.573</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="107">
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>0.005</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="108">
@@ -3674,10 +3674,10 @@
         <v>0.259</v>
       </c>
       <c r="G108" t="n">
-        <v>0.177</v>
+        <v>0.162</v>
       </c>
       <c r="H108" t="n">
-        <v>0.274</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="109">
@@ -3704,10 +3704,10 @@
         <v>0.389</v>
       </c>
       <c r="G109" t="n">
-        <v>0.244</v>
+        <v>0.376</v>
       </c>
       <c r="H109" t="n">
-        <v>0.422</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="110">
@@ -3734,10 +3734,10 @@
         <v>0.402</v>
       </c>
       <c r="G110" t="n">
-        <v>0.438</v>
+        <v>0.446</v>
       </c>
       <c r="H110" t="n">
-        <v>0.469</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="111">
@@ -3764,10 +3764,10 @@
         <v>0.433</v>
       </c>
       <c r="G111" t="n">
-        <v>0.498</v>
+        <v>0.483</v>
       </c>
       <c r="H111" t="n">
-        <v>0.495</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="112">
@@ -3794,10 +3794,10 @@
         <v>0.457</v>
       </c>
       <c r="G112" t="n">
-        <v>0.518</v>
+        <v>0.519</v>
       </c>
       <c r="H112" t="n">
-        <v>0.521</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="113">
@@ -3824,10 +3824,10 @@
         <v>0.47</v>
       </c>
       <c r="G113" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="H113" t="n">
         <v>0.542</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.544</v>
       </c>
     </row>
     <row r="114">
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>0.047</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="115">
@@ -3884,10 +3884,10 @@
         <v>0.264</v>
       </c>
       <c r="G115" t="n">
-        <v>0.184</v>
+        <v>0.168</v>
       </c>
       <c r="H115" t="n">
-        <v>0.283</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="116">
@@ -3914,10 +3914,10 @@
         <v>0.392</v>
       </c>
       <c r="G116" t="n">
-        <v>0.253</v>
+        <v>0.381</v>
       </c>
       <c r="H116" t="n">
-        <v>0.426</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="117">
@@ -3944,10 +3944,10 @@
         <v>0.403</v>
       </c>
       <c r="G117" t="n">
-        <v>0.44</v>
+        <v>0.449</v>
       </c>
       <c r="H117" t="n">
-        <v>0.471</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="118">
@@ -3974,10 +3974,10 @@
         <v>0.434</v>
       </c>
       <c r="G118" t="n">
-        <v>0.499</v>
+        <v>0.485</v>
       </c>
       <c r="H118" t="n">
-        <v>0.496</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="119">
@@ -4004,10 +4004,10 @@
         <v>0.458</v>
       </c>
       <c r="G119" t="n">
-        <v>0.519</v>
+        <v>0.521</v>
       </c>
       <c r="H119" t="n">
-        <v>0.522</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="120">
@@ -4034,16 +4034,16 @@
         <v>0.471</v>
       </c>
       <c r="G120" t="n">
-        <v>0.544</v>
+        <v>0.551</v>
       </c>
       <c r="H120" t="n">
-        <v>0.545</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>accuracy_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4067,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>accuracy_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4082,28 +4082,28 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.005</v>
+        <v>0.12</v>
       </c>
       <c r="D122" t="n">
-        <v>0.002</v>
+        <v>0.229</v>
       </c>
       <c r="E122" t="n">
-        <v>0.004</v>
+        <v>0.201</v>
       </c>
       <c r="F122" t="n">
-        <v>0.011</v>
+        <v>0.197</v>
       </c>
       <c r="G122" t="n">
-        <v>0.016</v>
+        <v>0.179</v>
       </c>
       <c r="H122" t="n">
-        <v>0.013</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>accuracy_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4112,28 +4112,28 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.012</v>
+        <v>0.191</v>
       </c>
       <c r="D123" t="n">
-        <v>0.012</v>
+        <v>0.188</v>
       </c>
       <c r="E123" t="n">
-        <v>0.012</v>
+        <v>0.202</v>
       </c>
       <c r="F123" t="n">
-        <v>0.01</v>
+        <v>0.229</v>
       </c>
       <c r="G123" t="n">
-        <v>0.15</v>
+        <v>0.216</v>
       </c>
       <c r="H123" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>accuracy_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4142,28 +4142,28 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.011</v>
+        <v>0.17</v>
       </c>
       <c r="D124" t="n">
-        <v>0.012</v>
+        <v>0.209</v>
       </c>
       <c r="E124" t="n">
-        <v>0.008</v>
+        <v>0.22</v>
       </c>
       <c r="F124" t="n">
-        <v>0.012</v>
+        <v>0.211</v>
       </c>
       <c r="G124" t="n">
-        <v>0.012</v>
+        <v>0.223</v>
       </c>
       <c r="H124" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>accuracy_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4172,28 +4172,28 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.004</v>
+        <v>0.207</v>
       </c>
       <c r="D125" t="n">
-        <v>0.002</v>
+        <v>0.231</v>
       </c>
       <c r="E125" t="n">
-        <v>0.002</v>
+        <v>0.249</v>
       </c>
       <c r="F125" t="n">
-        <v>0.006</v>
+        <v>0.214</v>
       </c>
       <c r="G125" t="n">
-        <v>0.006</v>
+        <v>0.228</v>
       </c>
       <c r="H125" t="n">
-        <v>0.004</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>accuracy_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4202,28 +4202,28 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.003</v>
+        <v>0.22</v>
       </c>
       <c r="D126" t="n">
-        <v>0.005</v>
+        <v>0.246</v>
       </c>
       <c r="E126" t="n">
-        <v>0.002</v>
+        <v>0.246</v>
       </c>
       <c r="F126" t="n">
-        <v>0.005</v>
+        <v>0.222</v>
       </c>
       <c r="G126" t="n">
-        <v>0.002</v>
+        <v>0.239</v>
       </c>
       <c r="H126" t="n">
-        <v>0.006</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_std</t>
+          <t>accuracy_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4232,28 +4232,28 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.001</v>
+        <v>0.227</v>
       </c>
       <c r="D127" t="n">
-        <v>0.001</v>
+        <v>0.236</v>
       </c>
       <c r="E127" t="n">
-        <v>0.001</v>
+        <v>0.24</v>
       </c>
       <c r="F127" t="n">
-        <v>0.004</v>
+        <v>0.222</v>
       </c>
       <c r="G127" t="n">
-        <v>0.006</v>
+        <v>0.231</v>
       </c>
       <c r="H127" t="n">
-        <v>0.005</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_top4th_std</t>
+          <t>f1_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4277,13 +4277,13 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_top4th_std</t>
+          <t>f1_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4292,28 +4292,28 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.031</v>
+        <v>0.118</v>
       </c>
       <c r="D129" t="n">
-        <v>0.047</v>
+        <v>0.14</v>
       </c>
       <c r="E129" t="n">
-        <v>0.031</v>
+        <v>0.171</v>
       </c>
       <c r="F129" t="n">
-        <v>0.037</v>
+        <v>0.174</v>
       </c>
       <c r="G129" t="n">
-        <v>0.025</v>
+        <v>0.152</v>
       </c>
       <c r="H129" t="n">
-        <v>0.039</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_top4th_std</t>
+          <t>f1_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4322,28 +4322,28 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.01</v>
+        <v>0.165</v>
       </c>
       <c r="D130" t="n">
-        <v>0.005</v>
+        <v>0.17</v>
       </c>
       <c r="E130" t="n">
-        <v>0.007</v>
+        <v>0.187</v>
       </c>
       <c r="F130" t="n">
-        <v>0.003</v>
+        <v>0.2</v>
       </c>
       <c r="G130" t="n">
-        <v>0.169</v>
+        <v>0.193</v>
       </c>
       <c r="H130" t="n">
-        <v>0.006</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_top4th_std</t>
+          <t>f1_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4352,28 +4352,28 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.012</v>
+        <v>0.166</v>
       </c>
       <c r="D131" t="n">
-        <v>0.007</v>
+        <v>0.182</v>
       </c>
       <c r="E131" t="n">
-        <v>0.003</v>
+        <v>0.201</v>
       </c>
       <c r="F131" t="n">
-        <v>0.011</v>
+        <v>0.195</v>
       </c>
       <c r="G131" t="n">
-        <v>0.001</v>
+        <v>0.201</v>
       </c>
       <c r="H131" t="n">
-        <v>0.012</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_top4th_std</t>
+          <t>f1_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4382,28 +4382,28 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.006</v>
+        <v>0.188</v>
       </c>
       <c r="D132" t="n">
-        <v>0.005</v>
+        <v>0.197</v>
       </c>
       <c r="E132" t="n">
-        <v>0.002</v>
+        <v>0.215</v>
       </c>
       <c r="F132" t="n">
-        <v>0.007</v>
+        <v>0.199</v>
       </c>
       <c r="G132" t="n">
-        <v>0.003</v>
+        <v>0.214</v>
       </c>
       <c r="H132" t="n">
-        <v>0.001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_top4th_std</t>
+          <t>f1_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4412,28 +4412,28 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.003</v>
+        <v>0.197</v>
       </c>
       <c r="D133" t="n">
-        <v>0.005</v>
+        <v>0.2</v>
       </c>
       <c r="E133" t="n">
-        <v>0.001</v>
+        <v>0.216</v>
       </c>
       <c r="F133" t="n">
-        <v>0.001</v>
+        <v>0.204</v>
       </c>
       <c r="G133" t="n">
-        <v>0.01</v>
+        <v>0.215</v>
       </c>
       <c r="H133" t="n">
-        <v>0.006</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_top4th_std</t>
+          <t>f1_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4442,28 +4442,28 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.002</v>
+        <v>0.201</v>
       </c>
       <c r="D134" t="n">
-        <v>0.001</v>
+        <v>0.203</v>
       </c>
       <c r="E134" t="n">
-        <v>0.001</v>
+        <v>0.215</v>
       </c>
       <c r="F134" t="n">
-        <v>0.003</v>
+        <v>0.206</v>
       </c>
       <c r="G134" t="n">
-        <v>0.003</v>
+        <v>0.213</v>
       </c>
       <c r="H134" t="n">
-        <v>0.004</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_rest_std</t>
+          <t>recall_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4487,13 +4487,13 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_rest_std</t>
+          <t>recall_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4502,28 +4502,28 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.007</v>
+        <v>0.12</v>
       </c>
       <c r="D136" t="n">
-        <v>0.017</v>
+        <v>0.229</v>
       </c>
       <c r="E136" t="n">
-        <v>0.008</v>
+        <v>0.201</v>
       </c>
       <c r="F136" t="n">
-        <v>0.015</v>
+        <v>0.197</v>
       </c>
       <c r="G136" t="n">
-        <v>0.027</v>
+        <v>0.179</v>
       </c>
       <c r="H136" t="n">
-        <v>0.004</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_rest_std</t>
+          <t>recall_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4532,28 +4532,28 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.013</v>
+        <v>0.191</v>
       </c>
       <c r="D137" t="n">
-        <v>0.015</v>
+        <v>0.188</v>
       </c>
       <c r="E137" t="n">
-        <v>0.015</v>
+        <v>0.202</v>
       </c>
       <c r="F137" t="n">
-        <v>0.012</v>
+        <v>0.229</v>
       </c>
       <c r="G137" t="n">
-        <v>0.143</v>
+        <v>0.216</v>
       </c>
       <c r="H137" t="n">
-        <v>0.012</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_rest_std</t>
+          <t>recall_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4562,28 +4562,28 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.011</v>
+        <v>0.17</v>
       </c>
       <c r="D138" t="n">
-        <v>0.013</v>
+        <v>0.209</v>
       </c>
       <c r="E138" t="n">
-        <v>0.01</v>
+        <v>0.22</v>
       </c>
       <c r="F138" t="n">
-        <v>0.015</v>
+        <v>0.211</v>
       </c>
       <c r="G138" t="n">
-        <v>0.016</v>
+        <v>0.223</v>
       </c>
       <c r="H138" t="n">
-        <v>0.014</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_rest_std</t>
+          <t>recall_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4592,28 +4592,28 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.004</v>
+        <v>0.207</v>
       </c>
       <c r="D139" t="n">
-        <v>0.002</v>
+        <v>0.231</v>
       </c>
       <c r="E139" t="n">
-        <v>0.002</v>
+        <v>0.249</v>
       </c>
       <c r="F139" t="n">
-        <v>0.006</v>
+        <v>0.214</v>
       </c>
       <c r="G139" t="n">
-        <v>0.008</v>
+        <v>0.228</v>
       </c>
       <c r="H139" t="n">
-        <v>0.005</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_rest_std</t>
+          <t>recall_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.004</v>
+        <v>0.22</v>
       </c>
       <c r="D140" t="n">
-        <v>0.005</v>
+        <v>0.246</v>
       </c>
       <c r="E140" t="n">
-        <v>0.003</v>
+        <v>0.246</v>
       </c>
       <c r="F140" t="n">
-        <v>0.007</v>
+        <v>0.222</v>
       </c>
       <c r="G140" t="n">
-        <v>0.003</v>
+        <v>0.239</v>
       </c>
       <c r="H140" t="n">
-        <v>0.01</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>f1_macro_rest_std</t>
+          <t>recall_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4652,28 +4652,28 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.001</v>
+        <v>0.227</v>
       </c>
       <c r="D141" t="n">
-        <v>0.001</v>
+        <v>0.236</v>
       </c>
       <c r="E141" t="n">
-        <v>0.002</v>
+        <v>0.24</v>
       </c>
       <c r="F141" t="n">
-        <v>0.006</v>
+        <v>0.222</v>
       </c>
       <c r="G141" t="n">
-        <v>0.008</v>
+        <v>0.231</v>
       </c>
       <c r="H141" t="n">
-        <v>0.005</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_std</t>
+          <t>precision_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4697,13 +4697,13 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_std</t>
+          <t>precision_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4712,28 +4712,28 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.025</v>
+        <v>0.124</v>
       </c>
       <c r="D143" t="n">
-        <v>0.025</v>
+        <v>0.131</v>
       </c>
       <c r="E143" t="n">
-        <v>0.02</v>
+        <v>0.168</v>
       </c>
       <c r="F143" t="n">
-        <v>0.019</v>
+        <v>0.183</v>
       </c>
       <c r="G143" t="n">
-        <v>0.007</v>
+        <v>0.166</v>
       </c>
       <c r="H143" t="n">
-        <v>0.034</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_std</t>
+          <t>precision_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4742,28 +4742,28 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.013</v>
+        <v>0.154</v>
       </c>
       <c r="D144" t="n">
-        <v>0.013</v>
+        <v>0.164</v>
       </c>
       <c r="E144" t="n">
-        <v>0.011</v>
+        <v>0.182</v>
       </c>
       <c r="F144" t="n">
-        <v>0.01</v>
+        <v>0.181</v>
       </c>
       <c r="G144" t="n">
-        <v>0.094</v>
+        <v>0.19</v>
       </c>
       <c r="H144" t="n">
-        <v>0.011</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_std</t>
+          <t>precision_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4772,28 +4772,28 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.012</v>
+        <v>0.165</v>
       </c>
       <c r="D145" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.165</v>
       </c>
       <c r="E145" t="n">
-        <v>0.005</v>
+        <v>0.19</v>
       </c>
       <c r="F145" t="n">
-        <v>0.011</v>
+        <v>0.184</v>
       </c>
       <c r="G145" t="n">
-        <v>0.007</v>
+        <v>0.195</v>
       </c>
       <c r="H145" t="n">
-        <v>0.015</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_std</t>
+          <t>precision_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4802,28 +4802,28 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.004</v>
+        <v>0.178</v>
       </c>
       <c r="D146" t="n">
-        <v>0.003</v>
+        <v>0.176</v>
       </c>
       <c r="E146" t="n">
-        <v>0.002</v>
+        <v>0.195</v>
       </c>
       <c r="F146" t="n">
-        <v>0.006</v>
+        <v>0.179</v>
       </c>
       <c r="G146" t="n">
-        <v>0.001</v>
+        <v>0.21</v>
       </c>
       <c r="H146" t="n">
-        <v>0.007</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_std</t>
+          <t>precision_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4832,28 +4832,28 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.001</v>
+        <v>0.183</v>
       </c>
       <c r="D147" t="n">
-        <v>0.004</v>
+        <v>0.152</v>
       </c>
       <c r="E147" t="n">
-        <v>0.001</v>
+        <v>0.197</v>
       </c>
       <c r="F147" t="n">
-        <v>0.001</v>
+        <v>0.187</v>
       </c>
       <c r="G147" t="n">
-        <v>0.01</v>
+        <v>0.191</v>
       </c>
       <c r="H147" t="n">
-        <v>0.004</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>accuracy/f1_micro_std</t>
+          <t>precision_crossclass_std_mean</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4862,28 +4862,28 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.001</v>
+        <v>0.185</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="E148" t="n">
-        <v>0.001</v>
+        <v>0.178</v>
       </c>
       <c r="F148" t="n">
-        <v>0.001</v>
+        <v>0.186</v>
       </c>
       <c r="G148" t="n">
-        <v>0.004</v>
+        <v>0.198</v>
       </c>
       <c r="H148" t="n">
-        <v>0.006</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4913,7 +4913,7 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4922,28 +4922,28 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="D150" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E150" t="n">
         <v>0.004</v>
       </c>
-      <c r="E150" t="n">
-        <v>0.002</v>
-      </c>
       <c r="F150" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G150" t="n">
         <v>0.007</v>
       </c>
-      <c r="G150" t="n">
-        <v>0.021</v>
-      </c>
       <c r="H150" t="n">
-        <v>0.012</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4952,28 +4952,28 @@
         </is>
       </c>
       <c r="C151" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F151" t="n">
         <v>0.01</v>
       </c>
-      <c r="D151" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.006</v>
-      </c>
       <c r="G151" t="n">
-        <v>0.111</v>
+        <v>0.013</v>
       </c>
       <c r="H151" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4988,22 +4988,22 @@
         <v>0.012</v>
       </c>
       <c r="E152" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="F152" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.012</v>
       </c>
       <c r="G152" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="H152" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5018,22 +5018,22 @@
         <v>0.002</v>
       </c>
       <c r="E153" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F153" t="n">
         <v>0.006</v>
       </c>
       <c r="G153" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="H153" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5042,28 +5042,28 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="D154" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="E154" t="n">
         <v>0.002</v>
       </c>
       <c r="F154" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G154" t="n">
         <v>0.006</v>
       </c>
-      <c r="G154" t="n">
-        <v>0.004</v>
-      </c>
       <c r="H154" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>accuracy_balanced_std</t>
+          <t>f1_macro_std</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5075,25 +5075,25 @@
         <v>0.001</v>
       </c>
       <c r="D155" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E155" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F155" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="G155" t="n">
-        <v>0.013</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H155" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_std</t>
+          <t>f1_macro_top4th_std</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5123,7 +5123,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_std</t>
+          <t>f1_macro_top4th_std</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5132,28 +5132,28 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.003</v>
+        <v>0.031</v>
       </c>
       <c r="D157" t="n">
-        <v>0.004</v>
+        <v>0.047</v>
       </c>
       <c r="E157" t="n">
-        <v>0.002</v>
+        <v>0.031</v>
       </c>
       <c r="F157" t="n">
-        <v>0.007</v>
+        <v>0.037</v>
       </c>
       <c r="G157" t="n">
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
       <c r="H157" t="n">
-        <v>0.012</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_std</t>
+          <t>f1_macro_top4th_std</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5165,25 +5165,25 @@
         <v>0.01</v>
       </c>
       <c r="D158" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="E158" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="F158" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="G158" t="n">
-        <v>0.111</v>
+        <v>0.019</v>
       </c>
       <c r="H158" t="n">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_std</t>
+          <t>f1_macro_top4th_std</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5192,28 +5192,28 @@
         </is>
       </c>
       <c r="C159" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F159" t="n">
         <v>0.011</v>
       </c>
-      <c r="D159" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0.008999999999999999</v>
-      </c>
       <c r="G159" t="n">
-        <v>0.016</v>
+        <v>0.005</v>
       </c>
       <c r="H159" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_std</t>
+          <t>f1_macro_top4th_std</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5222,19 +5222,19 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="D160" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E160" t="n">
         <v>0.002</v>
       </c>
-      <c r="E160" t="n">
-        <v>0.001</v>
-      </c>
       <c r="F160" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="G160" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="H160" t="n">
         <v>0.007</v>
@@ -5243,7 +5243,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_std</t>
+          <t>f1_macro_top4th_std</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="D161" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="E161" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F161" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="G161" t="n">
         <v>0.004</v>
       </c>
       <c r="H161" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_std</t>
+          <t>f1_macro_top4th_std</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5282,28 +5282,28 @@
         </is>
       </c>
       <c r="C162" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D162" t="n">
         <v>0.001</v>
       </c>
-      <c r="D162" t="n">
-        <v>0.002</v>
-      </c>
       <c r="E162" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F162" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="G162" t="n">
-        <v>0.013</v>
+        <v>0.007</v>
       </c>
       <c r="H162" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_std</t>
+          <t>f1_macro_rest_std</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5333,7 +5333,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_std</t>
+          <t>f1_macro_rest_std</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5342,28 +5342,28 @@
         </is>
       </c>
       <c r="C164" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H164" t="n">
         <v>0.025</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0.034</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_std</t>
+          <t>f1_macro_rest_std</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5375,25 +5375,25 @@
         <v>0.013</v>
       </c>
       <c r="D165" t="n">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="E165" t="n">
-        <v>0.011</v>
+        <v>0.015</v>
       </c>
       <c r="F165" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="G165" t="n">
-        <v>0.094</v>
+        <v>0.021</v>
       </c>
       <c r="H165" t="n">
-        <v>0.011</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_std</t>
+          <t>f1_macro_rest_std</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5402,28 +5402,28 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="D166" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.013</v>
       </c>
       <c r="E166" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="F166" t="n">
-        <v>0.011</v>
+        <v>0.015</v>
       </c>
       <c r="G166" t="n">
-        <v>0.007</v>
+        <v>0.02</v>
       </c>
       <c r="H166" t="n">
-        <v>0.015</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_std</t>
+          <t>f1_macro_rest_std</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5435,7 +5435,7 @@
         <v>0.004</v>
       </c>
       <c r="D167" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E167" t="n">
         <v>0.002</v>
@@ -5444,16 +5444,16 @@
         <v>0.006</v>
       </c>
       <c r="G167" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H167" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_std</t>
+          <t>f1_macro_rest_std</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5462,28 +5462,28 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="D168" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="E168" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F168" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="G168" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="H168" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>recall_micro_std</t>
+          <t>f1_macro_rest_std</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5495,25 +5495,25 @@
         <v>0.001</v>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E169" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H169" t="n">
         <v>0.001</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0.006</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_top4th_std</t>
+          <t>accuracy/f1_micro_std</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5543,7 +5543,7 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_top4th_std</t>
+          <t>accuracy/f1_micro_std</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5552,28 +5552,28 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.047</v>
+        <v>0.025</v>
       </c>
       <c r="D171" t="n">
-        <v>0.056</v>
+        <v>0.025</v>
       </c>
       <c r="E171" t="n">
-        <v>0.051</v>
+        <v>0.02</v>
       </c>
       <c r="F171" t="n">
-        <v>0.043</v>
+        <v>0.019</v>
       </c>
       <c r="G171" t="n">
-        <v>0.029</v>
+        <v>0.013</v>
       </c>
       <c r="H171" t="n">
-        <v>0.051</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_top4th_std</t>
+          <t>accuracy/f1_micro_std</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5582,28 +5582,28 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.018</v>
+        <v>0.013</v>
       </c>
       <c r="D172" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="E172" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="F172" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H172" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_top4th_std</t>
+          <t>accuracy/f1_micro_std</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5615,25 +5615,25 @@
         <v>0.012</v>
       </c>
       <c r="D173" t="n">
-        <v>0.004</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E173" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G173" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="F173" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.016</v>
-      </c>
       <c r="H173" t="n">
-        <v>0.021</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_top4th_std</t>
+          <t>accuracy/f1_micro_std</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5642,28 +5642,28 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="D174" t="n">
         <v>0.003</v>
       </c>
       <c r="E174" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="F174" t="n">
         <v>0.006</v>
       </c>
       <c r="G174" t="n">
-        <v>0.012</v>
+        <v>0.007</v>
       </c>
       <c r="H174" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_top4th_std</t>
+          <t>accuracy/f1_micro_std</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5672,28 +5672,28 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="D175" t="n">
         <v>0.004</v>
       </c>
       <c r="E175" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G175" t="n">
         <v>0.004</v>
       </c>
-      <c r="F175" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.018</v>
-      </c>
       <c r="H175" t="n">
-        <v>0.012</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_top4th_std</t>
+          <t>accuracy/f1_micro_std</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5702,28 +5702,28 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="D176" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="E176" t="n">
         <v>0.001</v>
       </c>
       <c r="F176" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="G176" t="n">
-        <v>0.036</v>
+        <v>0.004</v>
       </c>
       <c r="H176" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_rest_std</t>
+          <t>accuracy_balanced_std</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5753,7 +5753,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_rest_std</t>
+          <t>accuracy_balanced_std</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5762,28 +5762,28 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.013</v>
+        <v>0.003</v>
       </c>
       <c r="D178" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H178" t="n">
         <v>0.017</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0.005</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_rest_std</t>
+          <t>accuracy_balanced_std</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5792,28 +5792,28 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="D179" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="E179" t="n">
-        <v>0.012</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F179" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="G179" t="n">
-        <v>0.124</v>
+        <v>0.01</v>
       </c>
       <c r="H179" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_rest_std</t>
+          <t>accuracy_balanced_std</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5822,28 +5822,28 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="D180" t="n">
-        <v>0.016</v>
+        <v>0.012</v>
       </c>
       <c r="E180" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="F180" t="n">
-        <v>0.013</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G180" t="n">
-        <v>0.025</v>
+        <v>0.021</v>
       </c>
       <c r="H180" t="n">
-        <v>0.015</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_rest_std</t>
+          <t>accuracy_balanced_std</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5858,22 +5858,22 @@
         <v>0.002</v>
       </c>
       <c r="E181" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F181" t="n">
         <v>0.006</v>
       </c>
       <c r="G181" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="H181" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_rest_std</t>
+          <t>accuracy_balanced_std</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5882,28 +5882,28 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="D182" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="E182" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F182" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="G182" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="H182" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>recall_macro_rest_std</t>
+          <t>accuracy_balanced_std</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5912,28 +5912,28 @@
         </is>
       </c>
       <c r="C183" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D183" t="n">
         <v>0.002</v>
       </c>
-      <c r="D183" t="n">
-        <v>0.004</v>
-      </c>
       <c r="E183" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H183" t="n">
         <v>0.003</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0.004</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_std</t>
+          <t>recall_macro_std</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5963,7 +5963,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_std</t>
+          <t>recall_macro_std</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5972,28 +5972,28 @@
         </is>
       </c>
       <c r="C185" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D185" t="n">
         <v>0.004</v>
       </c>
-      <c r="D185" t="n">
-        <v>0.008</v>
-      </c>
       <c r="E185" t="n">
-        <v>0.026</v>
+        <v>0.002</v>
       </c>
       <c r="F185" t="n">
-        <v>0.031</v>
+        <v>0.007</v>
       </c>
       <c r="G185" t="n">
-        <v>0.014</v>
+        <v>0.005</v>
       </c>
       <c r="H185" t="n">
-        <v>0.007</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_std</t>
+          <t>recall_macro_std</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6002,28 +6002,28 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.016</v>
+        <v>0.01</v>
       </c>
       <c r="D186" t="n">
-        <v>0.016</v>
+        <v>0.01</v>
       </c>
       <c r="E186" t="n">
-        <v>0.015</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F186" t="n">
-        <v>0.015</v>
+        <v>0.006</v>
       </c>
       <c r="G186" t="n">
-        <v>0.141</v>
+        <v>0.01</v>
       </c>
       <c r="H186" t="n">
-        <v>0.007</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_std</t>
+          <t>recall_macro_std</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6032,28 +6032,28 @@
         </is>
       </c>
       <c r="C187" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="D187" t="n">
         <v>0.012</v>
       </c>
-      <c r="D187" t="n">
-        <v>0.011</v>
-      </c>
       <c r="E187" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F187" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="F187" t="n">
-        <v>0.013</v>
-      </c>
       <c r="G187" t="n">
-        <v>0.016</v>
+        <v>0.021</v>
       </c>
       <c r="H187" t="n">
-        <v>0.014</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_std</t>
+          <t>recall_macro_std</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6062,28 +6062,28 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="D188" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G188" t="n">
         <v>0.003</v>
       </c>
-      <c r="E188" t="n">
+      <c r="H188" t="n">
         <v>0.004</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0.003</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_std</t>
+          <t>recall_macro_std</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6092,28 +6092,28 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D189" t="n">
-        <v>0.026</v>
+        <v>0.004</v>
       </c>
       <c r="E189" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F189" t="n">
         <v>0.006</v>
       </c>
       <c r="G189" t="n">
-        <v>0.019</v>
+        <v>0.01</v>
       </c>
       <c r="H189" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_std</t>
+          <t>recall_macro_std</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6122,28 +6122,28 @@
         </is>
       </c>
       <c r="C190" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H190" t="n">
         <v>0.003</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0.006</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_std</t>
+          <t>recall_micro_std</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6173,7 +6173,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_std</t>
+          <t>recall_micro_std</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6194,16 +6194,16 @@
         <v>0.019</v>
       </c>
       <c r="G192" t="n">
-        <v>0.007</v>
+        <v>0.013</v>
       </c>
       <c r="H192" t="n">
-        <v>0.034</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_std</t>
+          <t>recall_micro_std</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6224,16 +6224,16 @@
         <v>0.01</v>
       </c>
       <c r="G193" t="n">
-        <v>0.094</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H193" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_std</t>
+          <t>recall_micro_std</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6254,16 +6254,16 @@
         <v>0.011</v>
       </c>
       <c r="G194" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="H194" t="n">
         <v>0.007</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0.015</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_std</t>
+          <t>recall_micro_std</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6284,16 +6284,16 @@
         <v>0.006</v>
       </c>
       <c r="G195" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="H195" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_std</t>
+          <t>recall_micro_std</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6314,7 +6314,7 @@
         <v>0.001</v>
       </c>
       <c r="G196" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="H196" t="n">
         <v>0.004</v>
@@ -6323,7 +6323,7 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>precision_micro_std</t>
+          <t>recall_micro_std</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6347,13 +6347,13 @@
         <v>0.004</v>
       </c>
       <c r="H197" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_top4th_std</t>
+          <t>recall_macro_top4th_std</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6383,7 +6383,7 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_top4th_std</t>
+          <t>recall_macro_top4th_std</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6392,28 +6392,28 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.013</v>
+        <v>0.047</v>
       </c>
       <c r="D199" t="n">
-        <v>0.007</v>
+        <v>0.056</v>
       </c>
       <c r="E199" t="n">
-        <v>0.017</v>
+        <v>0.051</v>
       </c>
       <c r="F199" t="n">
-        <v>0.017</v>
+        <v>0.043</v>
       </c>
       <c r="G199" t="n">
-        <v>0.026</v>
+        <v>0.047</v>
       </c>
       <c r="H199" t="n">
-        <v>0.021</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_top4th_std</t>
+          <t>recall_macro_top4th_std</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6422,28 +6422,28 @@
         </is>
       </c>
       <c r="C200" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F200" t="n">
         <v>0.007</v>
       </c>
-      <c r="D200" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0.002</v>
-      </c>
       <c r="G200" t="n">
-        <v>0.005</v>
+        <v>0.023</v>
       </c>
       <c r="H200" t="n">
-        <v>0.013</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_top4th_std</t>
+          <t>recall_macro_top4th_std</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6452,28 +6452,28 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="D201" t="n">
-        <v>0.012</v>
+        <v>0.004</v>
       </c>
       <c r="E201" t="n">
-        <v>0.004</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F201" t="n">
-        <v>0.006</v>
+        <v>0.017</v>
       </c>
       <c r="G201" t="n">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="H201" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_top4th_std</t>
+          <t>recall_macro_top4th_std</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -6482,28 +6482,28 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="D202" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F202" t="n">
         <v>0.006</v>
       </c>
-      <c r="E202" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0.008999999999999999</v>
-      </c>
       <c r="G202" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="H202" t="n">
-        <v>0.006</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_top4th_std</t>
+          <t>recall_macro_top4th_std</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -6512,28 +6512,28 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="D203" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="E203" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="F203" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="G203" t="n">
-        <v>0.005</v>
+        <v>0.017</v>
       </c>
       <c r="H203" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_top4th_std</t>
+          <t>recall_macro_top4th_std</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6542,28 +6542,28 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="D204" t="n">
         <v>0.003</v>
       </c>
       <c r="E204" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F204" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="G204" t="n">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="H204" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_rest_std</t>
+          <t>recall_macro_rest_std</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -6593,7 +6593,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_rest_std</t>
+          <t>recall_macro_rest_std</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -6602,28 +6602,28 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.005</v>
+        <v>0.013</v>
       </c>
       <c r="D206" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.017</v>
       </c>
       <c r="E206" t="n">
-        <v>0.037</v>
+        <v>0.018</v>
       </c>
       <c r="F206" t="n">
-        <v>0.037</v>
+        <v>0.016</v>
       </c>
       <c r="G206" t="n">
-        <v>0.011</v>
+        <v>0.02</v>
       </c>
       <c r="H206" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_rest_std</t>
+          <t>recall_macro_rest_std</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -6632,28 +6632,28 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.019</v>
+        <v>0.011</v>
       </c>
       <c r="D207" t="n">
-        <v>0.022</v>
+        <v>0.011</v>
       </c>
       <c r="E207" t="n">
-        <v>0.019</v>
+        <v>0.012</v>
       </c>
       <c r="F207" t="n">
-        <v>0.019</v>
+        <v>0.008</v>
       </c>
       <c r="G207" t="n">
-        <v>0.188</v>
+        <v>0.014</v>
       </c>
       <c r="H207" t="n">
-        <v>0.014</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_rest_std</t>
+          <t>recall_macro_rest_std</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6662,28 +6662,28 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="D208" t="n">
-        <v>0.012</v>
+        <v>0.016</v>
       </c>
       <c r="E208" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="F208" t="n">
-        <v>0.017</v>
+        <v>0.013</v>
       </c>
       <c r="G208" t="n">
-        <v>0.016</v>
+        <v>0.033</v>
       </c>
       <c r="H208" t="n">
-        <v>0.017</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_rest_std</t>
+          <t>recall_macro_rest_std</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6692,28 +6692,28 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="D209" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E209" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F209" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G209" t="n">
         <v>0.004</v>
       </c>
-      <c r="G209" t="n">
-        <v>0.008</v>
-      </c>
       <c r="H209" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_rest_std</t>
+          <t>recall_macro_rest_std</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6725,25 +6725,25 @@
         <v>0.005</v>
       </c>
       <c r="D210" t="n">
-        <v>0.036</v>
+        <v>0.005</v>
       </c>
       <c r="E210" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="F210" t="n">
         <v>0.008</v>
       </c>
       <c r="G210" t="n">
-        <v>0.024</v>
+        <v>0.016</v>
       </c>
       <c r="H210" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>precision_macro_rest_std</t>
+          <t>recall_macro_rest_std</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -6752,28 +6752,28 @@
         </is>
       </c>
       <c r="C211" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D211" t="n">
         <v>0.004</v>
       </c>
-      <c r="D211" t="n">
-        <v>0.034</v>
-      </c>
       <c r="E211" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="F211" t="n">
         <v>0.007</v>
       </c>
       <c r="G211" t="n">
-        <v>0.024</v>
+        <v>0.031</v>
       </c>
       <c r="H211" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>accuracy_top4th_std</t>
+          <t>precision_macro_std</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -6803,7 +6803,7 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>accuracy_top4th_std</t>
+          <t>precision_macro_std</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -6812,28 +6812,28 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.052</v>
+        <v>0.004</v>
       </c>
       <c r="D213" t="n">
-        <v>0.062</v>
+        <v>0.008</v>
       </c>
       <c r="E213" t="n">
-        <v>0.056</v>
+        <v>0.026</v>
       </c>
       <c r="F213" t="n">
-        <v>0.051</v>
+        <v>0.031</v>
       </c>
       <c r="G213" t="n">
-        <v>0.024</v>
+        <v>0.011</v>
       </c>
       <c r="H213" t="n">
-        <v>0.051</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>accuracy_top4th_std</t>
+          <t>precision_macro_std</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -6842,28 +6842,28 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="D214" t="n">
         <v>0.016</v>
       </c>
       <c r="E214" t="n">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
       <c r="F214" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="G214" t="n">
-        <v>0.067</v>
+        <v>0.024</v>
       </c>
       <c r="H214" t="n">
-        <v>0.017</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>accuracy_top4th_std</t>
+          <t>precision_macro_std</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -6875,25 +6875,25 @@
         <v>0.012</v>
       </c>
       <c r="D215" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="E215" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F215" t="n">
-        <v>0.018</v>
+        <v>0.013</v>
       </c>
       <c r="G215" t="n">
-        <v>0.014</v>
+        <v>0.004</v>
       </c>
       <c r="H215" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>accuracy_top4th_std</t>
+          <t>precision_macro_std</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -6902,28 +6902,28 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="D216" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="E216" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="F216" t="n">
         <v>0.005</v>
       </c>
       <c r="G216" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="H216" t="n">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>accuracy_top4th_std</t>
+          <t>precision_macro_std</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -6935,25 +6935,25 @@
         <v>0.003</v>
       </c>
       <c r="D217" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F217" t="n">
         <v>0.006</v>
       </c>
-      <c r="E217" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0.003</v>
-      </c>
       <c r="G217" t="n">
-        <v>0.02</v>
+        <v>0.008</v>
       </c>
       <c r="H217" t="n">
-        <v>0.013</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>accuracy_top4th_std</t>
+          <t>precision_macro_std</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -6962,28 +6962,28 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="D218" t="n">
-        <v>0.003</v>
+        <v>0.025</v>
       </c>
       <c r="E218" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H218" t="n">
         <v>0.001</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0.007</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>accuracy_rest_std</t>
+          <t>precision_micro_std</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -7013,7 +7013,7 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>accuracy_rest_std</t>
+          <t>precision_micro_std</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -7022,28 +7022,28 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.025</v>
       </c>
       <c r="D220" t="n">
-        <v>0.022</v>
+        <v>0.025</v>
       </c>
       <c r="E220" t="n">
-        <v>0.026</v>
+        <v>0.02</v>
       </c>
       <c r="F220" t="n">
-        <v>0.024</v>
+        <v>0.019</v>
       </c>
       <c r="G220" t="n">
-        <v>0.036</v>
+        <v>0.013</v>
       </c>
       <c r="H220" t="n">
-        <v>0.013</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>accuracy_rest_std</t>
+          <t>precision_micro_std</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -7052,28 +7052,28 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="D221" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="E221" t="n">
-        <v>0.021</v>
+        <v>0.011</v>
       </c>
       <c r="F221" t="n">
-        <v>0.016</v>
+        <v>0.01</v>
       </c>
       <c r="G221" t="n">
-        <v>0.148</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H221" t="n">
-        <v>0.031</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>accuracy_rest_std</t>
+          <t>precision_micro_std</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -7082,28 +7082,28 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="D222" t="n">
-        <v>0.02</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E222" t="n">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="F222" t="n">
-        <v>0.015</v>
+        <v>0.011</v>
       </c>
       <c r="G222" t="n">
-        <v>0.026</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H222" t="n">
-        <v>0.013</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>accuracy_rest_std</t>
+          <t>precision_micro_std</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -7112,28 +7112,28 @@
         </is>
       </c>
       <c r="C223" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F223" t="n">
         <v>0.006</v>
       </c>
-      <c r="D223" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="E223" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F223" t="n">
+      <c r="G223" t="n">
         <v>0.007</v>
       </c>
-      <c r="G223" t="n">
-        <v>0.013</v>
-      </c>
       <c r="H223" t="n">
-        <v>0.019</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>accuracy_rest_std</t>
+          <t>precision_micro_std</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -7142,28 +7142,28 @@
         </is>
       </c>
       <c r="C224" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D224" t="n">
         <v>0.004</v>
       </c>
-      <c r="D224" t="n">
-        <v>0.003</v>
-      </c>
       <c r="E224" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F224" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="G224" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="H224" t="n">
-        <v>0.021</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>accuracy_rest_std</t>
+          <t>precision_micro_std</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -7172,28 +7172,28 @@
         </is>
       </c>
       <c r="C225" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H225" t="n">
         <v>0.002</v>
-      </c>
-      <c r="D225" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="E225" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_std</t>
+          <t>precision_macro_top4th_std</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -7223,7 +7223,7 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_std</t>
+          <t>precision_macro_top4th_std</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -7232,28 +7232,28 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="D227" t="n">
-        <v>0.012</v>
+        <v>0.007</v>
       </c>
       <c r="E227" t="n">
-        <v>0.014</v>
+        <v>0.017</v>
       </c>
       <c r="F227" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="G227" t="n">
-        <v>0.01</v>
+        <v>0.022</v>
       </c>
       <c r="H227" t="n">
-        <v>0.03</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_std</t>
+          <t>precision_macro_top4th_std</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -7262,28 +7262,28 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.015</v>
+        <v>0.007</v>
       </c>
       <c r="D228" t="n">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="E228" t="n">
-        <v>0.014</v>
+        <v>0.006</v>
       </c>
       <c r="F228" t="n">
-        <v>0.012</v>
+        <v>0.002</v>
       </c>
       <c r="G228" t="n">
-        <v>0.172</v>
+        <v>0.003</v>
       </c>
       <c r="H228" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_std</t>
+          <t>precision_macro_top4th_std</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -7292,28 +7292,28 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="D229" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="E229" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="F229" t="n">
-        <v>0.012</v>
+        <v>0.006</v>
       </c>
       <c r="G229" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.013</v>
       </c>
       <c r="H229" t="n">
-        <v>0.013</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_std</t>
+          <t>precision_macro_top4th_std</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -7322,28 +7322,28 @@
         </is>
       </c>
       <c r="C230" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="D230" t="n">
         <v>0.006</v>
       </c>
-      <c r="D230" t="n">
-        <v>0.004</v>
-      </c>
       <c r="E230" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H230" t="n">
         <v>0.003</v>
-      </c>
-      <c r="F230" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="G230" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_std</t>
+          <t>precision_macro_top4th_std</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -7352,28 +7352,28 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="D231" t="n">
         <v>0.005</v>
       </c>
       <c r="E231" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F231" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G231" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="H231" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>cohen_kappa_std</t>
+          <t>precision_macro_top4th_std</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -7382,28 +7382,28 @@
         </is>
       </c>
       <c r="C232" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F232" t="n">
         <v>0.001</v>
       </c>
-      <c r="D232" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E232" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F232" t="n">
-        <v>0.002</v>
-      </c>
       <c r="G232" t="n">
-        <v>0.001</v>
+        <v>0.015</v>
       </c>
       <c r="H232" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_std</t>
+          <t>precision_macro_rest_std</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -7433,7 +7433,7 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_std</t>
+          <t>precision_macro_rest_std</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -7442,28 +7442,28 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.016</v>
+        <v>0.005</v>
       </c>
       <c r="D234" t="n">
-        <v>0.015</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E234" t="n">
-        <v>0.015</v>
+        <v>0.037</v>
       </c>
       <c r="F234" t="n">
-        <v>0.016</v>
+        <v>0.037</v>
       </c>
       <c r="G234" t="n">
         <v>0.008</v>
       </c>
       <c r="H234" t="n">
-        <v>0.028</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_std</t>
+          <t>precision_macro_rest_std</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7472,28 +7472,28 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.015</v>
+        <v>0.019</v>
       </c>
       <c r="D235" t="n">
-        <v>0.012</v>
+        <v>0.022</v>
       </c>
       <c r="E235" t="n">
-        <v>0.014</v>
+        <v>0.019</v>
       </c>
       <c r="F235" t="n">
-        <v>0.012</v>
+        <v>0.019</v>
       </c>
       <c r="G235" t="n">
-        <v>0.171</v>
+        <v>0.032</v>
       </c>
       <c r="H235" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_std</t>
+          <t>precision_macro_rest_std</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7502,28 +7502,28 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="D236" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="E236" t="n">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
       <c r="F236" t="n">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
       <c r="G236" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="H236" t="n">
-        <v>0.012</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_std</t>
+          <t>precision_macro_rest_std</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -7532,19 +7532,19 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="D237" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F237" t="n">
         <v>0.004</v>
       </c>
-      <c r="E237" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F237" t="n">
-        <v>0.008</v>
-      </c>
       <c r="G237" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H237" t="n">
         <v>0.008999999999999999</v>
@@ -7553,7 +7553,7 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>matthews_corrcoef_std</t>
+          <t>precision_macro_rest_std</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -7562,52 +7562,1732 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="D238" t="n">
-        <v>0.004</v>
+        <v>0.036</v>
       </c>
       <c r="E238" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="F238" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
       <c r="G238" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H238" t="n">
         <v>0.01</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0.005</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
+          <t>precision_macro_rest_std</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_top4th_std</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_top4th_std</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.102</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_top4th_std</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_top4th_std</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_top4th_std</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_top4th_std</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_top4th_std</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_rest_std</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_rest_std</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_rest_std</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_rest_std</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_rest_std</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_rest_std</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_rest_std</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>cohen_kappa_std</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
           <t>matthews_corrcoef_std</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>matthews_corrcoef_std</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="C239" t="n">
+      <c r="C267" t="n">
         <v>0.001</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D267" t="n">
         <v>0.001</v>
       </c>
-      <c r="E239" t="n">
+      <c r="E267" t="n">
         <v>0.002</v>
       </c>
-      <c r="F239" t="n">
+      <c r="F267" t="n">
         <v>0.002</v>
       </c>
-      <c r="G239" t="n">
+      <c r="G267" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G273" t="n">
         <v>0.002</v>
       </c>
-      <c r="H239" t="n">
+      <c r="H273" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>f1_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>f1_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>f1_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>f1_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
         <v>0.007</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>f1_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>f1_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>f1_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>recall_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>recall_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>recall_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>recall_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>recall_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>recall_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>recall_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>precision_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>precision_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>precision_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>precision_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>precision_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>precision_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>precision_crossclass_std_std</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0.002</v>
       </c>
     </row>
   </sheetData>
